--- a/RCEP_economic_analysis.xlsx
+++ b/RCEP_economic_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesica\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5498083-7D58-4A8E-BEEB-3F5205D939E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E46D3-E8AC-45A7-A827-AE94EB8E817C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet15" sheetId="16" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Lao" sheetId="8" r:id="rId8"/>
     <sheet name="Malaysia" sheetId="9" r:id="rId9"/>
     <sheet name="Myanmar" sheetId="10" r:id="rId10"/>
-    <sheet name="New Zealand" sheetId="11" r:id="rId11"/>
+    <sheet name="New Zeland" sheetId="11" r:id="rId11"/>
     <sheet name="Philipines" sheetId="18" r:id="rId12"/>
     <sheet name="Singapore" sheetId="12" r:id="rId13"/>
     <sheet name="Thailand" sheetId="14" r:id="rId14"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="36">
   <si>
     <t>Gross domestic product, constant prices</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Percent change</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Gross domestic product, current prices</t>
@@ -116,9 +113,6 @@
     <t>Current account is all transactions other than those in financial and capital items. The major classifications are goods and services, income and current transfers. The focus of the BOP is on transactions (between an economy and the rest of the world) in goods, services, and income.</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -138,6 +132,27 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>RGDP</t>
+  </si>
+  <si>
+    <t>NGDP</t>
+  </si>
+  <si>
+    <t>GDP_pc</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>Net_LB</t>
+  </si>
+  <si>
+    <t>Unemployment_Rate</t>
+  </si>
+  <si>
+    <t>Account_Balance</t>
   </si>
 </sst>
 </file>
@@ -981,36 +996,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0328242A-772E-44CB-B8C1-4086E1DBA4F8}">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -1018,25 +1033,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1044,25 +1059,25 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -1070,10 +1085,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -1082,44 +1097,44 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1844,42 +1859,41 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -1893,22 +1907,19 @@
         <v>6.8979999999999997</v>
       </c>
       <c r="E2">
-        <v>26.795000000000002</v>
+        <v>9.6720000000000006</v>
       </c>
       <c r="F2">
-        <v>9.6720000000000006</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>-4.2130000000000001</v>
       </c>
       <c r="H2">
-        <v>-4.2130000000000001</v>
-      </c>
-      <c r="I2">
         <v>-13.606999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -1923,22 +1934,19 @@
         <v>10.93</v>
       </c>
       <c r="E3">
-        <v>4.2539999999999996</v>
+        <v>-1.1439999999999999</v>
       </c>
       <c r="F3">
-        <v>-1.1439999999999999</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>-5.5819999999999999</v>
       </c>
       <c r="H3">
-        <v>-5.5819999999999999</v>
-      </c>
-      <c r="I3">
         <v>-8.1649999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -1953,22 +1961,19 @@
         <v>11.147</v>
       </c>
       <c r="E4">
-        <v>-19.331</v>
+        <v>-20.013000000000002</v>
       </c>
       <c r="F4">
-        <v>-20.013000000000002</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>-5.83</v>
       </c>
       <c r="H4">
-        <v>-5.83</v>
-      </c>
-      <c r="I4">
         <v>-6.7759999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -1983,22 +1988,19 @@
         <v>8.8339999999999996</v>
       </c>
       <c r="E5">
-        <v>22.620999999999999</v>
+        <v>60.137999999999998</v>
       </c>
       <c r="F5">
-        <v>60.137999999999998</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>-3.7240000000000002</v>
       </c>
       <c r="H5">
-        <v>-3.7240000000000002</v>
-      </c>
-      <c r="I5">
         <v>-1.571</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -2013,22 +2015,19 @@
         <v>12.263999999999999</v>
       </c>
       <c r="E6">
-        <v>47.469000000000001</v>
+        <v>24.111000000000001</v>
       </c>
       <c r="F6">
-        <v>24.111000000000001</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>-3.9180000000000001</v>
       </c>
       <c r="H6">
-        <v>-3.9180000000000001</v>
-      </c>
-      <c r="I6">
         <v>1.177</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -2043,22 +2042,19 @@
         <v>14.521000000000001</v>
       </c>
       <c r="E7">
-        <v>8.0050000000000008</v>
+        <v>3.0680000000000001</v>
       </c>
       <c r="F7">
-        <v>3.0680000000000001</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>-4.2549999999999999</v>
       </c>
       <c r="H7">
-        <v>-4.2549999999999999</v>
-      </c>
-      <c r="I7">
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -2073,22 +2069,19 @@
         <v>12.866</v>
       </c>
       <c r="E8">
-        <v>6.8860000000000001</v>
+        <v>9.9819999999999993</v>
       </c>
       <c r="F8">
-        <v>9.9819999999999993</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>-3.254</v>
       </c>
       <c r="H8">
-        <v>-3.254</v>
-      </c>
-      <c r="I8">
         <v>5.1820000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -2103,22 +2096,19 @@
         <v>12.622999999999999</v>
       </c>
       <c r="E9">
-        <v>16.550999999999998</v>
+        <v>24.800999999999998</v>
       </c>
       <c r="F9">
-        <v>24.800999999999998</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>-3.2090000000000001</v>
       </c>
       <c r="H9">
-        <v>-3.2090000000000001</v>
-      </c>
-      <c r="I9">
         <v>7.2350000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -2133,22 +2123,19 @@
         <v>11.802</v>
       </c>
       <c r="E10">
-        <v>34.436999999999998</v>
+        <v>34.226999999999997</v>
       </c>
       <c r="F10">
-        <v>34.226999999999997</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>-3.2959999999999998</v>
       </c>
       <c r="H10">
-        <v>-3.2959999999999998</v>
-      </c>
-      <c r="I10">
         <v>2.7160000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -2163,22 +2150,19 @@
         <v>6.8710000000000004</v>
       </c>
       <c r="E11">
-        <v>20.911000000000001</v>
+        <v>14.362</v>
       </c>
       <c r="F11">
-        <v>14.362</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>-2.5790000000000002</v>
       </c>
       <c r="H11">
-        <v>-2.5790000000000002</v>
-      </c>
-      <c r="I11">
         <v>-3.1280000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -2193,22 +2177,19 @@
         <v>3.6960000000000002</v>
       </c>
       <c r="E12">
-        <v>3.6920000000000002</v>
+        <v>-0.121</v>
       </c>
       <c r="F12">
-        <v>-0.121</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>-3.31</v>
       </c>
       <c r="H12">
-        <v>-3.31</v>
-      </c>
-      <c r="I12">
         <v>-3.0430000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -2223,22 +2204,19 @@
         <v>4.5179999999999998</v>
       </c>
       <c r="E13">
-        <v>5.9240000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="F13">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>-4.96</v>
       </c>
       <c r="H13">
-        <v>-4.96</v>
-      </c>
-      <c r="I13">
         <v>4.7089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -2253,22 +2231,19 @@
         <v>4.6989999999999998</v>
       </c>
       <c r="E14">
-        <v>6.8289999999999997</v>
+        <v>3.0169999999999999</v>
       </c>
       <c r="F14">
-        <v>3.0169999999999999</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>-4.43</v>
       </c>
       <c r="H14">
-        <v>-4.43</v>
-      </c>
-      <c r="I14">
         <v>-1.873</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -2283,22 +2258,19 @@
         <v>5.6580000000000004</v>
       </c>
       <c r="E15">
-        <v>0.36</v>
+        <v>4.1159999999999997</v>
       </c>
       <c r="F15">
-        <v>4.1159999999999997</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>-2.6509999999999998</v>
       </c>
       <c r="H15">
-        <v>-2.6509999999999998</v>
-      </c>
-      <c r="I15">
         <v>-1.833</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -2313,22 +2285,19 @@
         <v>7.01</v>
       </c>
       <c r="E16">
-        <v>5.7629999999999999</v>
+        <v>5.7130000000000001</v>
       </c>
       <c r="F16">
-        <v>5.7130000000000001</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>-1.7170000000000001</v>
       </c>
       <c r="H16">
-        <v>-1.7170000000000001</v>
-      </c>
-      <c r="I16">
         <v>-1.2390000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -2343,22 +2312,19 @@
         <v>7.2729999999999997</v>
       </c>
       <c r="E17">
-        <v>5.1429999999999998</v>
+        <v>3.5979999999999999</v>
       </c>
       <c r="F17">
-        <v>3.5979999999999999</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>-1.3149999999999999</v>
       </c>
       <c r="H17">
-        <v>-1.3149999999999999</v>
-      </c>
-      <c r="I17">
         <v>-4.46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -2373,22 +2339,19 @@
         <v>6.5469999999999997</v>
       </c>
       <c r="E18">
-        <v>7.2590000000000003</v>
+        <v>13.590999999999999</v>
       </c>
       <c r="F18">
-        <v>13.590999999999999</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>-2.7829999999999999</v>
       </c>
       <c r="H18">
-        <v>-2.7829999999999999</v>
-      </c>
-      <c r="I18">
         <v>-3.4409999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -2403,22 +2366,19 @@
         <v>5.516</v>
       </c>
       <c r="E19">
-        <v>9.0990000000000002</v>
+        <v>3.8769999999999998</v>
       </c>
       <c r="F19">
-        <v>3.8769999999999998</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>-3.8679999999999999</v>
       </c>
       <c r="H19">
-        <v>-3.8679999999999999</v>
-      </c>
-      <c r="I19">
         <v>-4.1539999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -2433,22 +2393,19 @@
         <v>4.9029999999999996</v>
       </c>
       <c r="E20">
-        <v>4.6219999999999999</v>
+        <v>3.403</v>
       </c>
       <c r="F20">
-        <v>3.403</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>-2.7389999999999999</v>
       </c>
       <c r="H20">
-        <v>-2.7389999999999999</v>
-      </c>
-      <c r="I20">
         <v>-6.5069999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -2463,22 +2420,19 @@
         <v>5.5940000000000003</v>
       </c>
       <c r="E21">
-        <v>5.944</v>
+        <v>8.5879999999999992</v>
       </c>
       <c r="F21">
-        <v>8.5879999999999992</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>-3.0129999999999999</v>
       </c>
       <c r="H21">
-        <v>-3.0129999999999999</v>
-      </c>
-      <c r="I21">
         <v>-4.1859999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -2493,22 +2447,19 @@
         <v>5.7279999999999998</v>
       </c>
       <c r="E22">
-        <v>8.6270000000000007</v>
+        <v>9.5109999999999992</v>
       </c>
       <c r="F22">
-        <v>9.5109999999999992</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>-3.4990000000000001</v>
       </c>
       <c r="H22">
-        <v>-3.4990000000000001</v>
-      </c>
-      <c r="I22">
         <v>-2.0019999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -2523,22 +2474,19 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="E23">
-        <v>6.19</v>
+        <v>5.431</v>
       </c>
       <c r="F23">
-        <v>5.431</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>-4.6870000000000003</v>
       </c>
       <c r="H23">
-        <v>-4.6870000000000003</v>
-      </c>
-      <c r="I23">
         <v>-4.7460000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -2553,18 +2501,15 @@
         <v>6.83</v>
       </c>
       <c r="E24">
-        <v>6.2670000000000003</v>
+        <v>6.1070000000000002</v>
       </c>
       <c r="F24">
-        <v>6.1070000000000002</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>-4.6429999999999998</v>
       </c>
       <c r="H24">
-        <v>-4.6429999999999998</v>
-      </c>
-      <c r="I24">
         <v>-3.8540000000000001</v>
       </c>
     </row>
@@ -2575,44 +2520,41 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:J25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -2626,22 +2568,19 @@
         <v>3.8740000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.11</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="F2">
-        <v>0.58899999999999997</v>
+        <v>7.05</v>
       </c>
       <c r="G2">
-        <v>7.05</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="H2">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="I2">
         <v>-5.0060000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -2656,22 +2595,19 @@
         <v>3.5270000000000001</v>
       </c>
       <c r="E3">
-        <v>2.61</v>
+        <v>3.9529999999999998</v>
       </c>
       <c r="F3">
-        <v>3.9529999999999998</v>
+        <v>6.15</v>
       </c>
       <c r="G3">
-        <v>6.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H3">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="I3">
         <v>-3.3410000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -2686,22 +2622,19 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="E4">
-        <v>2.6509999999999998</v>
+        <v>1.831</v>
       </c>
       <c r="F4">
-        <v>1.831</v>
+        <v>5.4749999999999996</v>
       </c>
       <c r="G4">
-        <v>5.4749999999999996</v>
+        <v>1.262</v>
       </c>
       <c r="H4">
-        <v>1.262</v>
-      </c>
-      <c r="I4">
         <v>-0.82199999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -2716,22 +2649,19 @@
         <v>3.1840000000000002</v>
       </c>
       <c r="E5">
-        <v>2.653</v>
+        <v>2.6280000000000001</v>
       </c>
       <c r="F5">
-        <v>2.6280000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="G5">
-        <v>5.3</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="H5">
-        <v>2.5259999999999998</v>
-      </c>
-      <c r="I5">
         <v>-2.1269999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -2746,22 +2676,19 @@
         <v>2.718</v>
       </c>
       <c r="E6">
-        <v>1.734</v>
+        <v>1.617</v>
       </c>
       <c r="F6">
-        <v>1.617</v>
+        <v>4.75</v>
       </c>
       <c r="G6">
-        <v>4.75</v>
+        <v>3.6549999999999998</v>
       </c>
       <c r="H6">
-        <v>3.6549999999999998</v>
-      </c>
-      <c r="I6">
         <v>-2.4809999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -2776,22 +2703,19 @@
         <v>3.097</v>
       </c>
       <c r="E7">
-        <v>2.306</v>
+        <v>2.653</v>
       </c>
       <c r="F7">
-        <v>2.653</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="G7">
-        <v>4.0250000000000004</v>
+        <v>4.4669999999999996</v>
       </c>
       <c r="H7">
-        <v>4.4669999999999996</v>
-      </c>
-      <c r="I7">
         <v>-4.5949999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -2806,22 +2730,19 @@
         <v>1.4119999999999999</v>
       </c>
       <c r="E8">
-        <v>3.0379999999999998</v>
+        <v>3.23</v>
       </c>
       <c r="F8">
-        <v>3.23</v>
+        <v>3.8</v>
       </c>
       <c r="G8">
-        <v>3.8</v>
+        <v>5.1059999999999999</v>
       </c>
       <c r="H8">
-        <v>5.1059999999999999</v>
-      </c>
-      <c r="I8">
         <v>-7.1449999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -2836,22 +2757,19 @@
         <v>1.5669999999999999</v>
       </c>
       <c r="E9">
-        <v>3.3610000000000002</v>
+        <v>2.6280000000000001</v>
       </c>
       <c r="F9">
-        <v>2.6280000000000001</v>
+        <v>3.875</v>
       </c>
       <c r="G9">
-        <v>3.875</v>
+        <v>4.5919999999999996</v>
       </c>
       <c r="H9">
-        <v>4.5919999999999996</v>
-      </c>
-      <c r="I9">
         <v>-7.1890000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -2866,22 +2784,19 @@
         <v>3.06</v>
       </c>
       <c r="E10">
-        <v>2.3929999999999998</v>
+        <v>3.1709999999999998</v>
       </c>
       <c r="F10">
-        <v>3.1709999999999998</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="G10">
-        <v>3.5750000000000002</v>
+        <v>3.5680000000000001</v>
       </c>
       <c r="H10">
-        <v>3.5680000000000001</v>
-      </c>
-      <c r="I10">
         <v>-6.8490000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -2896,22 +2811,19 @@
         <v>-1.208</v>
       </c>
       <c r="E11">
-        <v>3.9249999999999998</v>
+        <v>3.31</v>
       </c>
       <c r="F11">
-        <v>3.31</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="H11">
-        <v>1.4450000000000001</v>
-      </c>
-      <c r="I11">
         <v>-7.7519999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -2926,22 +2838,19 @@
         <v>-0.86699999999999999</v>
       </c>
       <c r="E12">
-        <v>2.1619999999999999</v>
+        <v>2.0590000000000002</v>
       </c>
       <c r="F12">
-        <v>2.0590000000000002</v>
+        <v>5.8250000000000002</v>
       </c>
       <c r="G12">
-        <v>5.8250000000000002</v>
+        <v>-1.841</v>
       </c>
       <c r="H12">
-        <v>-1.841</v>
-      </c>
-      <c r="I12">
         <v>-2.1760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -2956,22 +2865,19 @@
         <v>1.0629999999999999</v>
       </c>
       <c r="E13">
-        <v>2.2570000000000001</v>
+        <v>3.9239999999999999</v>
       </c>
       <c r="F13">
-        <v>3.9239999999999999</v>
+        <v>6.15</v>
       </c>
       <c r="G13">
-        <v>6.15</v>
+        <v>-5.4</v>
       </c>
       <c r="H13">
-        <v>-5.4</v>
-      </c>
-      <c r="I13">
         <v>-2.2890000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -2986,22 +2892,19 @@
         <v>1.3129999999999999</v>
       </c>
       <c r="E14">
-        <v>4.0839999999999996</v>
+        <v>1.9419999999999999</v>
       </c>
       <c r="F14">
-        <v>1.9419999999999999</v>
+        <v>5.9749999999999996</v>
       </c>
       <c r="G14">
-        <v>5.9749999999999996</v>
+        <v>-4.91</v>
       </c>
       <c r="H14">
-        <v>-4.91</v>
-      </c>
-      <c r="I14">
         <v>-2.794</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -3016,22 +2919,19 @@
         <v>1.915</v>
       </c>
       <c r="E15">
-        <v>1.034</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="F15">
-        <v>0.95199999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="G15">
-        <v>6.4</v>
+        <v>-2.202</v>
       </c>
       <c r="H15">
-        <v>-2.202</v>
-      </c>
-      <c r="I15">
         <v>-3.9319999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -3046,22 +2946,19 @@
         <v>1.161</v>
       </c>
       <c r="E16">
-        <v>1.1279999999999999</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="F16">
-        <v>1.5720000000000001</v>
+        <v>5.75</v>
       </c>
       <c r="G16">
-        <v>5.75</v>
+        <v>-1.2969999999999999</v>
       </c>
       <c r="H16">
-        <v>-1.2969999999999999</v>
-      </c>
-      <c r="I16">
         <v>-3.173</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -3076,22 +2973,19 @@
         <v>1.4630000000000001</v>
       </c>
       <c r="E17">
-        <v>1.22</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="F17">
-        <v>0.72199999999999998</v>
+        <v>5.35</v>
       </c>
       <c r="G17">
-        <v>5.35</v>
+        <v>-0.44</v>
       </c>
       <c r="H17">
-        <v>-0.44</v>
-      </c>
-      <c r="I17">
         <v>-3.1309999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -3106,22 +3000,19 @@
         <v>2.1240000000000001</v>
       </c>
       <c r="E18">
-        <v>0.308</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="F18">
-        <v>0.10199999999999999</v>
+        <v>5.3250000000000002</v>
       </c>
       <c r="G18">
-        <v>5.3250000000000002</v>
+        <v>0.317</v>
       </c>
       <c r="H18">
-        <v>0.317</v>
-      </c>
-      <c r="I18">
         <v>-2.8290000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -3136,22 +3027,19 @@
         <v>2.1469999999999998</v>
       </c>
       <c r="E19">
-        <v>0.63900000000000001</v>
+        <v>1.331</v>
       </c>
       <c r="F19">
-        <v>1.331</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G19">
-        <v>5.0999999999999996</v>
+        <v>1.024</v>
       </c>
       <c r="H19">
-        <v>1.024</v>
-      </c>
-      <c r="I19">
         <v>-2.0329999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -3166,22 +3054,19 @@
         <v>2.0449999999999999</v>
       </c>
       <c r="E20">
-        <v>1.8540000000000001</v>
+        <v>1.6160000000000001</v>
       </c>
       <c r="F20">
-        <v>1.6160000000000001</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="G20">
-        <v>4.7249999999999996</v>
+        <v>1.288</v>
       </c>
       <c r="H20">
-        <v>1.288</v>
-      </c>
-      <c r="I20">
         <v>-2.7170000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -3196,22 +3081,19 @@
         <v>1.5620000000000001</v>
       </c>
       <c r="E21">
-        <v>1.5960000000000001</v>
+        <v>1.889</v>
       </c>
       <c r="F21">
-        <v>1.889</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="G21">
-        <v>4.2750000000000004</v>
+        <v>1.429</v>
       </c>
       <c r="H21">
-        <v>1.429</v>
-      </c>
-      <c r="I21">
         <v>-3.8439999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -3226,22 +3108,19 @@
         <v>0.73099999999999998</v>
       </c>
       <c r="E22">
-        <v>1.62</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="F22">
-        <v>1.8540000000000001</v>
+        <v>4.05</v>
       </c>
       <c r="G22">
-        <v>4.05</v>
+        <v>-1.619</v>
       </c>
       <c r="H22">
-        <v>-1.619</v>
-      </c>
-      <c r="I22">
         <v>-2.9689999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -3256,22 +3135,19 @@
         <v>-8.3209999999999997</v>
       </c>
       <c r="E23">
-        <v>1.224</v>
+        <v>1.002</v>
       </c>
       <c r="F23">
-        <v>1.002</v>
+        <v>9.2230000000000008</v>
       </c>
       <c r="G23">
-        <v>9.2230000000000008</v>
+        <v>-5.181</v>
       </c>
       <c r="H23">
-        <v>-5.181</v>
-      </c>
-      <c r="I23">
         <v>-4.5149999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -3286,18 +3162,15 @@
         <v>4.8319999999999999</v>
       </c>
       <c r="E24">
-        <v>1.3819999999999999</v>
+        <v>1.508</v>
       </c>
       <c r="F24">
-        <v>1.508</v>
+        <v>6.8140000000000001</v>
       </c>
       <c r="G24">
-        <v>6.8140000000000001</v>
+        <v>-3.3879999999999999</v>
       </c>
       <c r="H24">
-        <v>-3.3879999999999999</v>
-      </c>
-      <c r="I24">
         <v>-3.214</v>
       </c>
     </row>
@@ -3308,44 +3181,41 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FE6577-55B4-4722-87F1-B0548DEA6925}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -3359,22 +3229,19 @@
         <v>0.9</v>
       </c>
       <c r="E2">
-        <v>5.9740000000000002</v>
+        <v>4.0229999999999997</v>
       </c>
       <c r="F2">
-        <v>4.0229999999999997</v>
+        <v>9.7249999999999996</v>
       </c>
       <c r="G2">
-        <v>9.7249999999999996</v>
+        <v>-2.36</v>
       </c>
       <c r="H2">
-        <v>-2.36</v>
-      </c>
-      <c r="I2">
         <v>-3.464</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -3388,22 +3255,19 @@
         <v>4.3710000000000004</v>
       </c>
       <c r="E3">
-        <v>3.9239999999999999</v>
+        <v>6.2619999999999996</v>
       </c>
       <c r="F3">
-        <v>6.2619999999999996</v>
+        <v>11.175000000000001</v>
       </c>
       <c r="G3">
-        <v>11.175000000000001</v>
+        <v>-3.3809999999999998</v>
       </c>
       <c r="H3">
-        <v>-3.3809999999999998</v>
-      </c>
-      <c r="I3">
         <v>-2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -3417,22 +3281,19 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="E4">
-        <v>6.7729999999999997</v>
+        <v>4.5060000000000002</v>
       </c>
       <c r="F4">
-        <v>4.5060000000000002</v>
+        <v>11.125</v>
       </c>
       <c r="G4">
-        <v>11.125</v>
+        <v>-3.6160000000000001</v>
       </c>
       <c r="H4">
-        <v>-3.6160000000000001</v>
-      </c>
-      <c r="I4">
         <v>-2.2949999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -3446,22 +3307,19 @@
         <v>1.464</v>
       </c>
       <c r="E5">
-        <v>3.0590000000000002</v>
+        <v>2.653</v>
       </c>
       <c r="F5">
-        <v>2.653</v>
+        <v>11.4</v>
       </c>
       <c r="G5">
-        <v>11.4</v>
+        <v>-3.8410000000000002</v>
       </c>
       <c r="H5">
-        <v>-3.8410000000000002</v>
-      </c>
-      <c r="I5">
         <v>-0.34699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -3475,22 +3333,19 @@
         <v>2.919</v>
       </c>
       <c r="E6">
-        <v>3.4449999999999998</v>
+        <v>3.8769999999999998</v>
       </c>
       <c r="F6">
-        <v>3.8769999999999998</v>
+        <v>11.4</v>
       </c>
       <c r="G6">
-        <v>11.4</v>
+        <v>-3.621</v>
       </c>
       <c r="H6">
-        <v>-3.621</v>
-      </c>
-      <c r="I6">
         <v>0.34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -3504,22 +3359,19 @@
         <v>4.5519999999999996</v>
       </c>
       <c r="E7">
-        <v>5.9630000000000001</v>
+        <v>8.3979999999999997</v>
       </c>
       <c r="F7">
-        <v>8.3979999999999997</v>
+        <v>11.824999999999999</v>
       </c>
       <c r="G7">
-        <v>11.824999999999999</v>
+        <v>-2.919</v>
       </c>
       <c r="H7">
-        <v>-2.919</v>
-      </c>
-      <c r="I7">
         <v>1.778</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -3533,22 +3385,19 @@
         <v>2.6890000000000001</v>
       </c>
       <c r="E8">
-        <v>7.702</v>
+        <v>6.7430000000000003</v>
       </c>
       <c r="F8">
-        <v>6.7430000000000003</v>
+        <v>11.35</v>
       </c>
       <c r="G8">
-        <v>11.35</v>
+        <v>-1.6930000000000001</v>
       </c>
       <c r="H8">
-        <v>-1.6930000000000001</v>
-      </c>
-      <c r="I8">
         <v>1.931</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -3562,22 +3411,19 @@
         <v>3.1739999999999999</v>
       </c>
       <c r="E9">
-        <v>6.2510000000000003</v>
+        <v>4.4349999999999996</v>
       </c>
       <c r="F9">
-        <v>4.4349999999999996</v>
+        <v>7.95</v>
       </c>
       <c r="G9">
-        <v>7.95</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="H9">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="I9">
         <v>5.6970000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -3591,22 +3437,19 @@
         <v>4.5250000000000004</v>
       </c>
       <c r="E10">
-        <v>2.7789999999999999</v>
+        <v>3.8610000000000002</v>
       </c>
       <c r="F10">
-        <v>3.8610000000000002</v>
+        <v>7.3250000000000002</v>
       </c>
       <c r="G10">
-        <v>7.3250000000000002</v>
+        <v>-0.29799999999999999</v>
       </c>
       <c r="H10">
-        <v>-0.29799999999999999</v>
-      </c>
-      <c r="I10">
         <v>5.4039999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -3620,22 +3463,19 @@
         <v>3.3029999999999999</v>
       </c>
       <c r="E11">
-        <v>9.3049999999999997</v>
+        <v>8.0549999999999997</v>
       </c>
       <c r="F11">
-        <v>8.0549999999999997</v>
+        <v>7.4</v>
       </c>
       <c r="G11">
-        <v>7.4</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H11">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I11">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -3649,22 +3489,19 @@
         <v>-0.60699999999999998</v>
       </c>
       <c r="E12">
-        <v>3.2269999999999999</v>
+        <v>4.3579999999999997</v>
       </c>
       <c r="F12">
-        <v>4.3579999999999997</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="G12">
-        <v>7.4749999999999996</v>
+        <v>-2.6850000000000001</v>
       </c>
       <c r="H12">
-        <v>-2.6850000000000001</v>
-      </c>
-      <c r="I12">
         <v>5.0140000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -3678,22 +3515,19 @@
         <v>5.7960000000000003</v>
       </c>
       <c r="E13">
-        <v>4.109</v>
+        <v>3.6259999999999999</v>
       </c>
       <c r="F13">
-        <v>3.6259999999999999</v>
+        <v>7.3250000000000002</v>
       </c>
       <c r="G13">
-        <v>7.3250000000000002</v>
+        <v>-2.3530000000000002</v>
       </c>
       <c r="H13">
-        <v>-2.3530000000000002</v>
-      </c>
-      <c r="I13">
         <v>3.597</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -3707,22 +3541,19 @@
         <v>1.921</v>
       </c>
       <c r="E14">
-        <v>4.7560000000000002</v>
+        <v>4.1360000000000001</v>
       </c>
       <c r="F14">
-        <v>4.1360000000000001</v>
+        <v>7.0250000000000004</v>
       </c>
       <c r="G14">
-        <v>7.0250000000000004</v>
+        <v>-0.318</v>
       </c>
       <c r="H14">
-        <v>-0.318</v>
-      </c>
-      <c r="I14">
         <v>2.5169999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -3736,22 +3567,19 @@
         <v>4.1189999999999998</v>
       </c>
       <c r="E15">
-        <v>3.0209999999999999</v>
+        <v>2.7490000000000001</v>
       </c>
       <c r="F15">
-        <v>2.7490000000000001</v>
+        <v>6.9749999999999996</v>
       </c>
       <c r="G15">
-        <v>6.9749999999999996</v>
+        <v>-0.30399999999999999</v>
       </c>
       <c r="H15">
-        <v>-0.30399999999999999</v>
-      </c>
-      <c r="I15">
         <v>2.7789999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -3765,22 +3593,19 @@
         <v>5.2210000000000001</v>
       </c>
       <c r="E16">
-        <v>2.5830000000000002</v>
+        <v>3.766</v>
       </c>
       <c r="F16">
-        <v>3.766</v>
+        <v>7.0750000000000002</v>
       </c>
       <c r="G16">
-        <v>7.0750000000000002</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="H16">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="I16">
         <v>4.1879999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -3794,22 +3619,19 @@
         <v>4.3490000000000002</v>
       </c>
       <c r="E17">
-        <v>3.5979999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="F17">
-        <v>1.91</v>
+        <v>6.8</v>
       </c>
       <c r="G17">
-        <v>6.8</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="H17">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="I17">
         <v>3.78</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -3823,22 +3645,19 @@
         <v>4.3120000000000003</v>
       </c>
       <c r="E18">
-        <v>0.67400000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="F18">
-        <v>0.75</v>
+        <v>6.2750000000000004</v>
       </c>
       <c r="G18">
-        <v>6.2750000000000004</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="H18">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="I18">
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -3852,22 +3671,19 @@
         <v>5.1449999999999996</v>
       </c>
       <c r="E19">
-        <v>1.254</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="F19">
-        <v>2.2330000000000001</v>
+        <v>5.4749999999999996</v>
       </c>
       <c r="G19">
-        <v>5.4749999999999996</v>
+        <v>-0.36899999999999999</v>
       </c>
       <c r="H19">
-        <v>-0.36899999999999999</v>
-      </c>
-      <c r="I19">
         <v>-0.39300000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2017</v>
       </c>
@@ -3881,22 +3697,19 @@
         <v>4.9690000000000003</v>
       </c>
       <c r="E20">
-        <v>2.8530000000000002</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="F20">
-        <v>2.9119999999999999</v>
+        <v>5.7249999999999996</v>
       </c>
       <c r="G20">
-        <v>5.7249999999999996</v>
+        <v>-0.39</v>
       </c>
       <c r="H20">
-        <v>-0.39</v>
-      </c>
-      <c r="I20">
         <v>-0.68300000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -3910,22 +3723,19 @@
         <v>4.569</v>
       </c>
       <c r="E21">
-        <v>5.2119999999999997</v>
+        <v>5.1280000000000001</v>
       </c>
       <c r="F21">
-        <v>5.1280000000000001</v>
+        <v>5.3250000000000002</v>
       </c>
       <c r="G21">
-        <v>5.3250000000000002</v>
+        <v>-1.629</v>
       </c>
       <c r="H21">
-        <v>-1.629</v>
-      </c>
-      <c r="I21">
         <v>-2.6509999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -3939,22 +3749,19 @@
         <v>4.2720000000000002</v>
       </c>
       <c r="E22">
-        <v>2.48</v>
+        <v>2.5230000000000001</v>
       </c>
       <c r="F22">
-        <v>2.5230000000000001</v>
+        <v>5.0750000000000002</v>
       </c>
       <c r="G22">
-        <v>5.0750000000000002</v>
+        <v>-1.9259999999999999</v>
       </c>
       <c r="H22">
-        <v>-1.9259999999999999</v>
-      </c>
-      <c r="I22">
         <v>-0.129</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -3968,22 +3775,19 @@
         <v>-0.93799999999999994</v>
       </c>
       <c r="E23">
-        <v>1.7210000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="F23">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="G23">
-        <v>6.2</v>
+        <v>-3.3610000000000002</v>
       </c>
       <c r="H23">
-        <v>-3.3610000000000002</v>
-      </c>
-      <c r="I23">
         <v>-2.2549999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -3997,18 +3801,15 @@
         <v>5.92</v>
       </c>
       <c r="E24">
-        <v>2.8820000000000001</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="G24">
-        <v>5.25</v>
+        <v>-2.7240000000000002</v>
       </c>
       <c r="H24">
-        <v>-2.7240000000000002</v>
-      </c>
-      <c r="I24">
         <v>-2.2069999999999999</v>
       </c>
     </row>
@@ -4019,44 +3820,41 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:J25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -4070,22 +3868,19 @@
         <v>4.8819999999999997</v>
       </c>
       <c r="E2">
-        <v>2.3E-2</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="F2">
-        <v>0.67700000000000005</v>
+        <v>2.8</v>
       </c>
       <c r="G2">
-        <v>2.8</v>
+        <v>5.2039999999999997</v>
       </c>
       <c r="H2">
-        <v>5.2039999999999997</v>
-      </c>
-      <c r="I2">
         <v>17.204000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -4100,22 +3895,19 @@
         <v>7.1669999999999998</v>
       </c>
       <c r="E3">
-        <v>1.349</v>
+        <v>2.0630000000000002</v>
       </c>
       <c r="F3">
-        <v>2.0630000000000002</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="G3">
-        <v>2.6749999999999998</v>
+        <v>4.593</v>
       </c>
       <c r="H3">
-        <v>4.593</v>
-      </c>
-      <c r="I3">
         <v>11.071999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -4130,22 +3922,19 @@
         <v>-3.702</v>
       </c>
       <c r="E4">
-        <v>1.014</v>
+        <v>-0.58799999999999997</v>
       </c>
       <c r="F4">
-        <v>-0.58799999999999997</v>
+        <v>2.65</v>
       </c>
       <c r="G4">
-        <v>2.65</v>
+        <v>1.1970000000000001</v>
       </c>
       <c r="H4">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="I4">
         <v>14.433</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -4160,22 +3949,19 @@
         <v>2.9710000000000001</v>
       </c>
       <c r="E5">
-        <v>-0.39100000000000001</v>
+        <v>0.436</v>
       </c>
       <c r="F5">
-        <v>0.436</v>
+        <v>3.55</v>
       </c>
       <c r="G5">
-        <v>3.55</v>
+        <v>2.2320000000000002</v>
       </c>
       <c r="H5">
-        <v>2.2320000000000002</v>
-      </c>
-      <c r="I5">
         <v>14.877000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -4190,22 +3976,19 @@
         <v>6.0890000000000004</v>
       </c>
       <c r="E6">
-        <v>0.48699999999999999</v>
+        <v>0.745</v>
       </c>
       <c r="F6">
-        <v>0.745</v>
+        <v>3.95</v>
       </c>
       <c r="G6">
-        <v>3.95</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="H6">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="I6">
         <v>24.302</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -4220,22 +4003,19 @@
         <v>8.4529999999999994</v>
       </c>
       <c r="E7">
-        <v>1.671</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="F7">
-        <v>1.3109999999999999</v>
+        <v>3.35</v>
       </c>
       <c r="G7">
-        <v>3.35</v>
+        <v>2.06</v>
       </c>
       <c r="H7">
-        <v>2.06</v>
-      </c>
-      <c r="I7">
         <v>19.311</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -4250,22 +4030,19 @@
         <v>4.8650000000000002</v>
       </c>
       <c r="E8">
-        <v>0.46899999999999997</v>
+        <v>1.26</v>
       </c>
       <c r="F8">
-        <v>1.26</v>
+        <v>3.125</v>
       </c>
       <c r="G8">
-        <v>3.125</v>
+        <v>2.556</v>
       </c>
       <c r="H8">
-        <v>2.556</v>
-      </c>
-      <c r="I8">
         <v>23.26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -4280,22 +4057,19 @@
         <v>5.6470000000000002</v>
       </c>
       <c r="E9">
-        <v>0.96299999999999997</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F9">
-        <v>0.80900000000000005</v>
+        <v>2.65</v>
       </c>
       <c r="G9">
-        <v>2.65</v>
+        <v>2.16</v>
       </c>
       <c r="H9">
-        <v>2.16</v>
-      </c>
-      <c r="I9">
         <v>26.893000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -4310,22 +4084,19 @@
         <v>4.5739999999999998</v>
       </c>
       <c r="E10">
-        <v>2.105</v>
+        <v>3.82</v>
       </c>
       <c r="F10">
-        <v>3.82</v>
+        <v>2.125</v>
       </c>
       <c r="G10">
-        <v>2.125</v>
+        <v>7.12</v>
       </c>
       <c r="H10">
-        <v>7.12</v>
-      </c>
-      <c r="I10">
         <v>27.143000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -4340,22 +4111,19 @@
         <v>-3.411</v>
       </c>
       <c r="E11">
-        <v>6.6280000000000001</v>
+        <v>5.3659999999999997</v>
       </c>
       <c r="F11">
-        <v>5.3659999999999997</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="G11">
-        <v>2.2250000000000001</v>
+        <v>3.589</v>
       </c>
       <c r="H11">
-        <v>3.589</v>
-      </c>
-      <c r="I11">
         <v>15.083</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -4370,22 +4138,19 @@
         <v>-2.8540000000000001</v>
       </c>
       <c r="E12">
-        <v>0.59699999999999998</v>
+        <v>-0.52700000000000002</v>
       </c>
       <c r="F12">
-        <v>-0.52700000000000002</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="G12">
-        <v>3.0249999999999999</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="H12">
-        <v>-9.4E-2</v>
-      </c>
-      <c r="I12">
         <v>16.393000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -4400,22 +4165,19 @@
         <v>12.513999999999999</v>
       </c>
       <c r="E13">
-        <v>2.8239999999999998</v>
+        <v>4.59</v>
       </c>
       <c r="F13">
-        <v>4.59</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="G13">
-        <v>2.1749999999999998</v>
+        <v>5.6849999999999996</v>
       </c>
       <c r="H13">
-        <v>5.6849999999999996</v>
-      </c>
-      <c r="I13">
         <v>22.933</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -4430,22 +4192,19 @@
         <v>4.1440000000000001</v>
       </c>
       <c r="E14">
-        <v>5.2480000000000002</v>
+        <v>5.5339999999999998</v>
       </c>
       <c r="F14">
-        <v>5.5339999999999998</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="G14">
-        <v>2.0249999999999999</v>
+        <v>7.9619999999999997</v>
       </c>
       <c r="H14">
-        <v>7.9619999999999997</v>
-      </c>
-      <c r="I14">
         <v>22.218</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -4460,22 +4219,19 @@
         <v>1.93</v>
       </c>
       <c r="E15">
-        <v>4.5759999999999996</v>
+        <v>4.3239999999999998</v>
       </c>
       <c r="F15">
-        <v>4.3239999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="G15">
-        <v>1.95</v>
+        <v>7.3369999999999997</v>
       </c>
       <c r="H15">
-        <v>7.3369999999999997</v>
-      </c>
-      <c r="I15">
         <v>17.643000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -4490,22 +4246,19 @@
         <v>3.153</v>
       </c>
       <c r="E16">
-        <v>2.359</v>
+        <v>1.4990000000000001</v>
       </c>
       <c r="F16">
-        <v>1.4990000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="G16">
-        <v>1.9</v>
+        <v>5.9619999999999997</v>
       </c>
       <c r="H16">
-        <v>5.9619999999999997</v>
-      </c>
-      <c r="I16">
         <v>15.707000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -4520,22 +4273,19 @@
         <v>2.597</v>
       </c>
       <c r="E17">
-        <v>1.0249999999999999</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="F17">
-        <v>-7.5999999999999998E-2</v>
+        <v>1.95</v>
       </c>
       <c r="G17">
-        <v>1.95</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H17">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I17">
         <v>17.95</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -4550,22 +4300,19 @@
         <v>1.774</v>
       </c>
       <c r="E18">
-        <v>-0.52300000000000002</v>
+        <v>-0.63900000000000001</v>
       </c>
       <c r="F18">
-        <v>-0.63900000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="G18">
-        <v>1.9</v>
+        <v>2.863</v>
       </c>
       <c r="H18">
-        <v>2.863</v>
-      </c>
-      <c r="I18">
         <v>18.693000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -4580,22 +4327,19 @@
         <v>1.913</v>
       </c>
       <c r="E19">
-        <v>-0.53200000000000003</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F19">
-        <v>0.16300000000000001</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="G19">
-        <v>2.0750000000000002</v>
+        <v>3.657</v>
       </c>
       <c r="H19">
-        <v>3.657</v>
-      </c>
-      <c r="I19">
         <v>17.638999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -4610,22 +4354,19 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="E20">
-        <v>0.57599999999999996</v>
+        <v>0.375</v>
       </c>
       <c r="F20">
-        <v>0.375</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="G20">
-        <v>2.1749999999999998</v>
+        <v>5.3410000000000002</v>
       </c>
       <c r="H20">
-        <v>5.3410000000000002</v>
-      </c>
-      <c r="I20">
         <v>16.263999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -4640,22 +4381,19 @@
         <v>2.9529999999999998</v>
       </c>
       <c r="E21">
-        <v>0.439</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="F21">
-        <v>0.46500000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G21">
-        <v>2.1</v>
+        <v>3.7170000000000001</v>
       </c>
       <c r="H21">
-        <v>3.7170000000000001</v>
-      </c>
-      <c r="I21">
         <v>17.178999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -4670,22 +4408,19 @@
         <v>-0.41299999999999998</v>
       </c>
       <c r="E22">
-        <v>0.56499999999999995</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="F22">
-        <v>0.76100000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="G22">
-        <v>2.25</v>
+        <v>3.8420000000000001</v>
       </c>
       <c r="H22">
-        <v>3.8420000000000001</v>
-      </c>
-      <c r="I22">
         <v>16.97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -4700,22 +4435,19 @@
         <v>-4.5810000000000004</v>
       </c>
       <c r="E23">
-        <v>-0.16900000000000001</v>
+        <v>-0.437</v>
       </c>
       <c r="F23">
-        <v>-0.437</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G23">
-        <v>2.4500000000000002</v>
+        <v>-3.4750000000000001</v>
       </c>
       <c r="H23">
-        <v>-3.4750000000000001</v>
-      </c>
-      <c r="I23">
         <v>14.821999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -4730,18 +4462,15 @@
         <v>1.788</v>
       </c>
       <c r="E24">
-        <v>0.51200000000000001</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="F24">
-        <v>0.88700000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="G24">
-        <v>2.4</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="H24">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="I24">
         <v>15.707000000000001</v>
       </c>
     </row>
@@ -4752,44 +4481,41 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -4803,22 +4529,19 @@
         <v>3.4340000000000002</v>
       </c>
       <c r="E2">
-        <v>0.254</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>-9.0169999999999995</v>
       </c>
       <c r="H2">
-        <v>-9.0169999999999995</v>
-      </c>
-      <c r="I2">
         <v>9.8109999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -4833,22 +4556,19 @@
         <v>3.331</v>
       </c>
       <c r="E3">
-        <v>1.655</v>
+        <v>1.585</v>
       </c>
       <c r="F3">
-        <v>1.585</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-1.792</v>
       </c>
       <c r="H3">
-        <v>-1.792</v>
-      </c>
-      <c r="I3">
         <v>7.3680000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -4863,22 +4583,19 @@
         <v>2.8490000000000002</v>
       </c>
       <c r="E4">
-        <v>1.581</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="F4">
-        <v>0.56699999999999995</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="G4">
-        <v>3.3330000000000002</v>
+        <v>-1.768</v>
       </c>
       <c r="H4">
-        <v>-1.768</v>
-      </c>
-      <c r="I4">
         <v>4.24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -4893,22 +4610,19 @@
         <v>5.5419999999999998</v>
       </c>
       <c r="E5">
-        <v>0.72499999999999998</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="F5">
-        <v>1.6930000000000001</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="G5">
-        <v>2.4420000000000002</v>
+        <v>-6.7220000000000004</v>
       </c>
       <c r="H5">
-        <v>-6.7220000000000004</v>
-      </c>
-      <c r="I5">
         <v>3.4660000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -4923,22 +4637,19 @@
         <v>6.58</v>
       </c>
       <c r="E6">
-        <v>1.8120000000000001</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="F6">
-        <v>1.8029999999999999</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="G6">
-        <v>2.1920000000000002</v>
+        <v>1.978</v>
       </c>
       <c r="H6">
-        <v>1.978</v>
-      </c>
-      <c r="I6">
         <v>3.1339999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -4953,22 +4664,19 @@
         <v>5.6719999999999997</v>
       </c>
       <c r="E7">
-        <v>2.7610000000000001</v>
+        <v>2.8610000000000002</v>
       </c>
       <c r="F7">
-        <v>2.8610000000000002</v>
+        <v>2.1080000000000001</v>
       </c>
       <c r="G7">
-        <v>2.1080000000000001</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="H7">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="I7">
         <v>1.5960000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -4983,22 +4691,19 @@
         <v>3.6019999999999999</v>
       </c>
       <c r="E8">
-        <v>4.5190000000000001</v>
+        <v>5.8280000000000003</v>
       </c>
       <c r="F8">
-        <v>5.8280000000000003</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="G8">
-        <v>1.8580000000000001</v>
+        <v>2.173</v>
       </c>
       <c r="H8">
-        <v>2.173</v>
-      </c>
-      <c r="I8">
         <v>-4.0359999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -5013,22 +4718,19 @@
         <v>4.3650000000000002</v>
       </c>
       <c r="E9">
-        <v>4.6639999999999997</v>
+        <v>3.63</v>
       </c>
       <c r="F9">
-        <v>3.63</v>
+        <v>1.5169999999999999</v>
       </c>
       <c r="G9">
-        <v>1.5169999999999999</v>
+        <v>1.867</v>
       </c>
       <c r="H9">
-        <v>1.867</v>
-      </c>
-      <c r="I9">
         <v>1.044</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -5043,22 +4745,19 @@
         <v>4.8330000000000002</v>
       </c>
       <c r="E10">
-        <v>2.2029999999999998</v>
+        <v>3.0190000000000001</v>
       </c>
       <c r="F10">
-        <v>3.0190000000000001</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="G10">
-        <v>1.3640000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="H10">
-        <v>0.22</v>
-      </c>
-      <c r="I10">
         <v>5.9269999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -5073,22 +4772,19 @@
         <v>1.133</v>
       </c>
       <c r="E11">
-        <v>5.4619999999999997</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="F11">
-        <v>0.46899999999999997</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="G11">
-        <v>1.3720000000000001</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="H11">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="I11">
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -5103,22 +4799,19 @@
         <v>-1.2509999999999999</v>
       </c>
       <c r="E12">
-        <v>-0.84799999999999998</v>
+        <v>3.5009999999999999</v>
       </c>
       <c r="F12">
-        <v>3.5009999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>1.5</v>
+        <v>-2.214</v>
       </c>
       <c r="H12">
-        <v>-2.214</v>
-      </c>
-      <c r="I12">
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5133,22 +4826,19 @@
         <v>6.8940000000000001</v>
       </c>
       <c r="E13">
-        <v>3.286</v>
+        <v>3.0779999999999998</v>
       </c>
       <c r="F13">
-        <v>3.0779999999999998</v>
+        <v>1.05</v>
       </c>
       <c r="G13">
-        <v>1.05</v>
+        <v>-1.07</v>
       </c>
       <c r="H13">
-        <v>-1.07</v>
-      </c>
-      <c r="I13">
         <v>3.367</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -5163,22 +4853,19 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="E14">
-        <v>3.8109999999999999</v>
+        <v>3.5329999999999999</v>
       </c>
       <c r="F14">
-        <v>3.5329999999999999</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="G14">
-        <v>0.65800000000000003</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="I14">
         <v>2.5419999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -5193,22 +4880,19 @@
         <v>6.7910000000000004</v>
       </c>
       <c r="E15">
-        <v>3.0129999999999999</v>
+        <v>3.6230000000000002</v>
       </c>
       <c r="F15">
-        <v>3.6230000000000002</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G15">
-        <v>0.67500000000000004</v>
+        <v>-0.86</v>
       </c>
       <c r="H15">
-        <v>-0.86</v>
-      </c>
-      <c r="I15">
         <v>-1.232</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -5223,22 +4907,19 @@
         <v>2.2719999999999998</v>
       </c>
       <c r="E16">
-        <v>2.1850000000000001</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="F16">
-        <v>1.6719999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G16">
-        <v>0.7</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="H16">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="I16">
         <v>-2.1019999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -5253,22 +4934,19 @@
         <v>0.623</v>
       </c>
       <c r="E17">
-        <v>1.8959999999999999</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="F17">
-        <v>0.60199999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="G17">
-        <v>0.8</v>
+        <v>-0.80100000000000005</v>
       </c>
       <c r="H17">
-        <v>-0.80100000000000005</v>
-      </c>
-      <c r="I17">
         <v>2.8580000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -5283,22 +4961,19 @@
         <v>2.766</v>
       </c>
       <c r="E18">
-        <v>-0.9</v>
+        <v>-0.85699999999999998</v>
       </c>
       <c r="F18">
-        <v>-0.85699999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="G18">
-        <v>0.9</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="H18">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="I18">
         <v>6.9160000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -5313,22 +4988,19 @@
         <v>3.0920000000000001</v>
       </c>
       <c r="E19">
-        <v>0.188</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="F19">
-        <v>1.1259999999999999</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="H19">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="I19">
         <v>10.505000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -5343,22 +5015,19 @@
         <v>3.774</v>
       </c>
       <c r="E20">
-        <v>0.66500000000000004</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F20">
-        <v>0.77500000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="G20">
-        <v>1.2</v>
+        <v>-0.42499999999999999</v>
       </c>
       <c r="H20">
-        <v>-0.42499999999999999</v>
-      </c>
-      <c r="I20">
         <v>9.6310000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -5373,22 +5042,19 @@
         <v>3.931</v>
       </c>
       <c r="E21">
-        <v>1.0640000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F21">
-        <v>0.35499999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G21">
-        <v>1.1000000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H21">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="I21">
         <v>5.6189999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -5403,22 +5069,19 @@
         <v>2.19</v>
       </c>
       <c r="E22">
-        <v>0.70599999999999996</v>
+        <v>0.875</v>
       </c>
       <c r="F22">
-        <v>0.875</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G22">
-        <v>1.1000000000000001</v>
+        <v>-0.81599999999999995</v>
       </c>
       <c r="H22">
-        <v>-0.81599999999999995</v>
-      </c>
-      <c r="I22">
         <v>6.8620000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -5433,22 +5096,19 @@
         <v>-6.8029999999999999</v>
       </c>
       <c r="E23">
-        <v>-1.0609999999999999</v>
+        <v>-1.0569999999999999</v>
       </c>
       <c r="F23">
-        <v>-1.0569999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G23">
-        <v>1.1000000000000001</v>
+        <v>-3.4489999999999998</v>
       </c>
       <c r="H23">
-        <v>-3.4489999999999998</v>
-      </c>
-      <c r="I23">
         <v>5.165</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -5463,18 +5123,15 @@
         <v>5.9329999999999998</v>
       </c>
       <c r="E24">
-        <v>0.56299999999999994</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="F24">
-        <v>0.72599999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G24">
-        <v>1.1000000000000001</v>
+        <v>-1.6819999999999999</v>
       </c>
       <c r="H24">
-        <v>-1.6819999999999999</v>
-      </c>
-      <c r="I24">
         <v>5.569</v>
       </c>
     </row>
@@ -5485,44 +5142,41 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:M20"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -5536,22 +5190,19 @@
         <v>3.214</v>
       </c>
       <c r="E2">
-        <v>4.1079999999999997</v>
+        <v>-0.307</v>
       </c>
       <c r="F2">
-        <v>-0.307</v>
+        <v>6.74</v>
       </c>
       <c r="G2">
-        <v>6.74</v>
+        <v>-1.246</v>
       </c>
       <c r="H2">
-        <v>-1.246</v>
-      </c>
-      <c r="I2">
         <v>3.23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -5566,22 +5217,19 @@
         <v>5.359</v>
       </c>
       <c r="E3">
-        <v>-1.768</v>
+        <v>-0.63200000000000001</v>
       </c>
       <c r="F3">
-        <v>-0.63200000000000001</v>
+        <v>6.42</v>
       </c>
       <c r="G3">
-        <v>6.42</v>
+        <v>-1.605</v>
       </c>
       <c r="H3">
-        <v>-1.605</v>
-      </c>
-      <c r="I3">
         <v>2.1469999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -5596,22 +5244,19 @@
         <v>5.468</v>
       </c>
       <c r="E4">
-        <v>-0.31</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="F4">
-        <v>0.92500000000000004</v>
+        <v>6.28</v>
       </c>
       <c r="G4">
-        <v>6.28</v>
+        <v>-2.1920000000000002</v>
       </c>
       <c r="H4">
-        <v>-2.1920000000000002</v>
-      </c>
-      <c r="I4">
         <v>2.2280000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -5626,22 +5271,19 @@
         <v>5.681</v>
       </c>
       <c r="E5">
-        <v>4.0789999999999997</v>
+        <v>4.1189999999999998</v>
       </c>
       <c r="F5">
-        <v>4.1189999999999998</v>
+        <v>6.01</v>
       </c>
       <c r="G5">
-        <v>6.01</v>
+        <v>-1.855</v>
       </c>
       <c r="H5">
-        <v>-1.855</v>
-      </c>
-      <c r="I5">
         <v>-1.407</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -5656,22 +5298,19 @@
         <v>5.7859999999999996</v>
       </c>
       <c r="E6">
-        <v>3.3029999999999999</v>
+        <v>3.0830000000000002</v>
       </c>
       <c r="F6">
-        <v>3.0830000000000002</v>
+        <v>5.78</v>
       </c>
       <c r="G6">
-        <v>5.78</v>
+        <v>-2.5590000000000002</v>
       </c>
       <c r="H6">
-        <v>-2.5590000000000002</v>
-      </c>
-      <c r="I6">
         <v>-3.8439999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -5686,22 +5325,19 @@
         <v>6.3010000000000002</v>
       </c>
       <c r="E7">
-        <v>7.8949999999999996</v>
+        <v>9.8219999999999992</v>
       </c>
       <c r="F7">
-        <v>9.8219999999999992</v>
+        <v>5.6</v>
       </c>
       <c r="G7">
-        <v>5.6</v>
+        <v>-0.15</v>
       </c>
       <c r="H7">
-        <v>-0.15</v>
-      </c>
-      <c r="I7">
         <v>-2.5299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -5716,22 +5352,19 @@
         <v>7.0780000000000003</v>
       </c>
       <c r="E8">
-        <v>8.3940000000000001</v>
+        <v>8.8190000000000008</v>
       </c>
       <c r="F8">
-        <v>8.8190000000000008</v>
+        <v>5.31</v>
       </c>
       <c r="G8">
-        <v>5.31</v>
+        <v>-0.95399999999999996</v>
       </c>
       <c r="H8">
-        <v>-0.95399999999999996</v>
-      </c>
-      <c r="I8">
         <v>-0.76500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -5746,22 +5379,19 @@
         <v>5.798</v>
       </c>
       <c r="E9">
-        <v>7.5030000000000001</v>
+        <v>6.6989999999999998</v>
       </c>
       <c r="F9">
-        <v>6.6989999999999998</v>
+        <v>4.82</v>
       </c>
       <c r="G9">
-        <v>4.82</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
-      </c>
-      <c r="I9">
         <v>-0.19400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -5776,22 +5406,19 @@
         <v>5.9749999999999996</v>
       </c>
       <c r="E10">
-        <v>8.3490000000000002</v>
+        <v>12.631</v>
       </c>
       <c r="F10">
-        <v>12.631</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="G10">
-        <v>4.6399999999999997</v>
+        <v>-1.7390000000000001</v>
       </c>
       <c r="H10">
-        <v>-1.7390000000000001</v>
-      </c>
-      <c r="I10">
         <v>-7.1040000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -5806,22 +5433,19 @@
         <v>4.5439999999999996</v>
       </c>
       <c r="E11">
-        <v>23.114999999999998</v>
+        <v>19.890999999999998</v>
       </c>
       <c r="F11">
-        <v>19.890999999999998</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G11">
-        <v>4.6500000000000004</v>
+        <v>-0.44700000000000001</v>
       </c>
       <c r="H11">
-        <v>-0.44700000000000001</v>
-      </c>
-      <c r="I11">
         <v>-8.6449999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -5836,22 +5460,19 @@
         <v>4.2869999999999999</v>
       </c>
       <c r="E12">
-        <v>6.7169999999999996</v>
+        <v>6.5179999999999998</v>
       </c>
       <c r="F12">
-        <v>6.5179999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G12">
-        <v>4.5999999999999996</v>
+        <v>-4.8239999999999998</v>
       </c>
       <c r="H12">
-        <v>-4.8239999999999998</v>
-      </c>
-      <c r="I12">
         <v>-5.12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5866,22 +5487,19 @@
         <v>5.3120000000000003</v>
       </c>
       <c r="E13">
-        <v>9.2070000000000007</v>
+        <v>11.747999999999999</v>
       </c>
       <c r="F13">
-        <v>11.747999999999999</v>
+        <v>4.29</v>
       </c>
       <c r="G13">
-        <v>4.29</v>
+        <v>-2.2509999999999999</v>
       </c>
       <c r="H13">
-        <v>-2.2509999999999999</v>
-      </c>
-      <c r="I13">
         <v>-2.9849999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -5896,22 +5514,19 @@
         <v>5.3140000000000001</v>
       </c>
       <c r="E14">
-        <v>18.678000000000001</v>
+        <v>18.126999999999999</v>
       </c>
       <c r="F14">
-        <v>18.126999999999999</v>
+        <v>4.5129999999999999</v>
       </c>
       <c r="G14">
-        <v>4.5129999999999999</v>
+        <v>-0.90100000000000002</v>
       </c>
       <c r="H14">
-        <v>-0.90100000000000002</v>
-      </c>
-      <c r="I14">
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -5926,22 +5541,19 @@
         <v>4.3529999999999998</v>
       </c>
       <c r="E15">
-        <v>9.1029999999999998</v>
+        <v>6.8159999999999998</v>
       </c>
       <c r="F15">
-        <v>6.8159999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="G15">
-        <v>2.74</v>
+        <v>-5.4619999999999997</v>
       </c>
       <c r="H15">
-        <v>-5.4619999999999997</v>
-      </c>
-      <c r="I15">
         <v>4.7480000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -5956,22 +5568,19 @@
         <v>4.4359999999999999</v>
       </c>
       <c r="E16">
-        <v>6.5949999999999998</v>
+        <v>6.0359999999999996</v>
       </c>
       <c r="F16">
-        <v>6.0359999999999996</v>
+        <v>2.75</v>
       </c>
       <c r="G16">
-        <v>2.75</v>
+        <v>-5.9640000000000004</v>
       </c>
       <c r="H16">
-        <v>-5.9640000000000004</v>
-      </c>
-      <c r="I16">
         <v>3.64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -5986,22 +5595,19 @@
         <v>5.2859999999999996</v>
       </c>
       <c r="E17">
-        <v>4.085</v>
+        <v>1.839</v>
       </c>
       <c r="F17">
-        <v>1.839</v>
+        <v>2.1</v>
       </c>
       <c r="G17">
-        <v>2.1</v>
+        <v>-5.0170000000000003</v>
       </c>
       <c r="H17">
-        <v>-5.0170000000000003</v>
-      </c>
-      <c r="I17">
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -6016,22 +5622,19 @@
         <v>5.8380000000000001</v>
       </c>
       <c r="E18">
-        <v>0.63100000000000001</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="F18">
-        <v>0.59699999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="G18">
-        <v>2.33</v>
+        <v>-5.1989999999999998</v>
       </c>
       <c r="H18">
-        <v>-5.1989999999999998</v>
-      </c>
-      <c r="I18">
         <v>-0.86099999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -6046,22 +5649,19 @@
         <v>5.5650000000000004</v>
       </c>
       <c r="E19">
-        <v>2.6680000000000001</v>
+        <v>4.7370000000000001</v>
       </c>
       <c r="F19">
-        <v>4.7370000000000001</v>
+        <v>2.33</v>
       </c>
       <c r="G19">
-        <v>2.33</v>
+        <v>-3.081</v>
       </c>
       <c r="H19">
-        <v>-3.081</v>
-      </c>
-      <c r="I19">
         <v>0.248</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -6076,22 +5676,19 @@
         <v>5.8529999999999998</v>
       </c>
       <c r="E20">
-        <v>3.5209999999999999</v>
+        <v>2.597</v>
       </c>
       <c r="F20">
-        <v>2.597</v>
+        <v>2.21</v>
       </c>
       <c r="G20">
-        <v>2.21</v>
+        <v>-1.964</v>
       </c>
       <c r="H20">
-        <v>-1.964</v>
-      </c>
-      <c r="I20">
         <v>-0.59599999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -6106,22 +5703,19 @@
         <v>6.0209999999999999</v>
       </c>
       <c r="E21">
-        <v>3.54</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="F21">
-        <v>2.9830000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="G21">
-        <v>2.21</v>
+        <v>-3.4609999999999999</v>
       </c>
       <c r="H21">
-        <v>-3.4609999999999999</v>
-      </c>
-      <c r="I21">
         <v>1.9079999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -6136,22 +5730,19 @@
         <v>5.9870000000000001</v>
       </c>
       <c r="E22">
-        <v>2.7970000000000002</v>
+        <v>5.2370000000000001</v>
       </c>
       <c r="F22">
-        <v>5.2370000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="G22">
-        <v>2.21</v>
+        <v>-3.302</v>
       </c>
       <c r="H22">
-        <v>-3.302</v>
-      </c>
-      <c r="I22">
         <v>3.9929999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -6166,22 +5757,19 @@
         <v>1.728</v>
       </c>
       <c r="E23">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>-5.1539999999999999</v>
       </c>
       <c r="H23">
-        <v>-5.1539999999999999</v>
-      </c>
-      <c r="I23">
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -6196,18 +5784,15 @@
         <v>6.0039999999999996</v>
       </c>
       <c r="E24">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="F24">
-        <v>4.3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>-4.0839999999999996</v>
       </c>
       <c r="H24">
-        <v>-4.0839999999999996</v>
-      </c>
-      <c r="I24">
         <v>1.044</v>
       </c>
     </row>
@@ -6218,44 +5803,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -6269,22 +5851,19 @@
         <v>3.2789999999999999</v>
       </c>
       <c r="E2">
-        <v>1.4079999999999999</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="F2">
-        <v>1.7669999999999999</v>
+        <v>6.867</v>
       </c>
       <c r="G2">
-        <v>6.867</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H2">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="I2">
         <v>-5.484</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -6299,22 +5878,19 @@
         <v>1.833</v>
       </c>
       <c r="E3">
-        <v>4.4569999999999999</v>
+        <v>5.7889999999999997</v>
       </c>
       <c r="F3">
-        <v>5.7889999999999997</v>
+        <v>6.2919999999999998</v>
       </c>
       <c r="G3">
-        <v>6.2919999999999998</v>
+        <v>1.254</v>
       </c>
       <c r="H3">
-        <v>1.254</v>
-      </c>
-      <c r="I3">
         <v>-4.1020000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -6329,22 +5905,19 @@
         <v>1.3129999999999999</v>
       </c>
       <c r="E4">
-        <v>4.407</v>
+        <v>3.1459999999999999</v>
       </c>
       <c r="F4">
-        <v>3.1459999999999999</v>
+        <v>6.7750000000000004</v>
       </c>
       <c r="G4">
-        <v>6.7750000000000004</v>
+        <v>-0.03</v>
       </c>
       <c r="H4">
-        <v>-0.03</v>
-      </c>
-      <c r="I4">
         <v>-2.2530000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -6359,22 +5932,19 @@
         <v>2.9729999999999999</v>
       </c>
       <c r="E5">
-        <v>3.0489999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="F5">
-        <v>3.05</v>
+        <v>6.3579999999999997</v>
       </c>
       <c r="G5">
-        <v>6.3579999999999997</v>
+        <v>0.193</v>
       </c>
       <c r="H5">
-        <v>0.193</v>
-      </c>
-      <c r="I5">
         <v>-3.8140000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -6389,22 +5959,19 @@
         <v>1.6339999999999999</v>
       </c>
       <c r="E6">
-        <v>2.7629999999999999</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="F6">
-        <v>2.4449999999999998</v>
+        <v>5.9420000000000002</v>
       </c>
       <c r="G6">
-        <v>5.9420000000000002</v>
+        <v>1.054</v>
       </c>
       <c r="H6">
-        <v>1.054</v>
-      </c>
-      <c r="I6">
         <v>-5.3550000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -6419,22 +5986,19 @@
         <v>2.98</v>
       </c>
       <c r="E7">
-        <v>2.278</v>
+        <v>2.5129999999999999</v>
       </c>
       <c r="F7">
-        <v>2.5129999999999999</v>
+        <v>5.3920000000000003</v>
       </c>
       <c r="G7">
-        <v>5.3920000000000003</v>
+        <v>1.327</v>
       </c>
       <c r="H7">
-        <v>1.327</v>
-      </c>
-      <c r="I7">
         <v>-6.3209999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -6449,22 +6013,19 @@
         <v>1.6819999999999999</v>
       </c>
       <c r="E8">
-        <v>2.722</v>
+        <v>2.819</v>
       </c>
       <c r="F8">
-        <v>2.819</v>
+        <v>5.0419999999999998</v>
       </c>
       <c r="G8">
-        <v>5.0419999999999998</v>
+        <v>1.712</v>
       </c>
       <c r="H8">
-        <v>1.712</v>
-      </c>
-      <c r="I8">
         <v>-5.9480000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -6479,22 +6040,19 @@
         <v>1.133</v>
       </c>
       <c r="E9">
-        <v>3.5230000000000001</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="F9">
-        <v>3.3370000000000002</v>
+        <v>4.7919999999999998</v>
       </c>
       <c r="G9">
-        <v>4.7919999999999998</v>
+        <v>1.776</v>
       </c>
       <c r="H9">
-        <v>1.776</v>
-      </c>
-      <c r="I9">
         <v>-5.8689999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -6509,22 +6067,19 @@
         <v>2.4969999999999999</v>
       </c>
       <c r="E10">
-        <v>2.3559999999999999</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="F10">
-        <v>2.9990000000000001</v>
+        <v>4.375</v>
       </c>
       <c r="G10">
-        <v>4.375</v>
+        <v>1.478</v>
       </c>
       <c r="H10">
-        <v>1.478</v>
-      </c>
-      <c r="I10">
         <v>-6.718</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -6539,22 +6094,19 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="E11">
-        <v>4.3479999999999999</v>
+        <v>3.6949999999999998</v>
       </c>
       <c r="F11">
-        <v>3.6949999999999998</v>
+        <v>4.25</v>
       </c>
       <c r="G11">
-        <v>4.25</v>
+        <v>-1.1020000000000001</v>
       </c>
       <c r="H11">
-        <v>-1.1020000000000001</v>
-      </c>
-      <c r="I11">
         <v>-4.7380000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -6569,22 +6121,19 @@
         <v>6.3E-2</v>
       </c>
       <c r="E12">
-        <v>1.77</v>
+        <v>2.052</v>
       </c>
       <c r="F12">
-        <v>2.052</v>
+        <v>5.5750000000000002</v>
       </c>
       <c r="G12">
-        <v>5.5750000000000002</v>
+        <v>-4.5720000000000001</v>
       </c>
       <c r="H12">
-        <v>-4.5720000000000001</v>
-      </c>
-      <c r="I12">
         <v>-4.6619999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -6599,22 +6148,19 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="E13">
-        <v>2.863</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="F13">
-        <v>2.6459999999999999</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="G13">
-        <v>5.2080000000000002</v>
+        <v>-5.1269999999999998</v>
       </c>
       <c r="H13">
-        <v>-5.1269999999999998</v>
-      </c>
-      <c r="I13">
         <v>-3.653</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -6629,22 +6175,19 @@
         <v>1.2450000000000001</v>
       </c>
       <c r="E14">
-        <v>3.33</v>
+        <v>2.99</v>
       </c>
       <c r="F14">
-        <v>2.99</v>
+        <v>5.0830000000000002</v>
       </c>
       <c r="G14">
-        <v>5.0830000000000002</v>
+        <v>-4.5309999999999997</v>
       </c>
       <c r="H14">
-        <v>-4.5309999999999997</v>
-      </c>
-      <c r="I14">
         <v>-3.077</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -6659,22 +6202,19 @@
         <v>1.9630000000000001</v>
       </c>
       <c r="E15">
-        <v>1.712</v>
+        <v>2.1019999999999999</v>
       </c>
       <c r="F15">
-        <v>2.1019999999999999</v>
+        <v>5.2249999999999996</v>
       </c>
       <c r="G15">
-        <v>5.2249999999999996</v>
+        <v>-3.5110000000000001</v>
       </c>
       <c r="H15">
-        <v>-3.5110000000000001</v>
-      </c>
-      <c r="I15">
         <v>-4.2960000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -6689,22 +6229,19 @@
         <v>0.50600000000000001</v>
       </c>
       <c r="E16">
-        <v>2.4750000000000001</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="F16">
-        <v>2.7450000000000001</v>
+        <v>5.6580000000000004</v>
       </c>
       <c r="G16">
-        <v>5.6580000000000004</v>
+        <v>-2.8130000000000002</v>
       </c>
       <c r="H16">
-        <v>-2.8130000000000002</v>
-      </c>
-      <c r="I16">
         <v>-3.383</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -6719,22 +6256,19 @@
         <v>1.095</v>
       </c>
       <c r="E17">
-        <v>2.488</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="F17">
-        <v>1.6220000000000001</v>
+        <v>6.0579999999999998</v>
       </c>
       <c r="G17">
-        <v>6.0579999999999998</v>
+        <v>-2.919</v>
       </c>
       <c r="H17">
-        <v>-2.919</v>
-      </c>
-      <c r="I17">
         <v>-3.0720000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -6749,22 +6283,19 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="E18">
-        <v>1.4850000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="F18">
-        <v>1.69</v>
+        <v>6.05</v>
       </c>
       <c r="G18">
-        <v>6.05</v>
+        <v>-2.8029999999999999</v>
       </c>
       <c r="H18">
-        <v>-2.8029999999999999</v>
-      </c>
-      <c r="I18">
         <v>-4.6189999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -6779,22 +6310,19 @@
         <v>1.069</v>
       </c>
       <c r="E19">
-        <v>1.2769999999999999</v>
+        <v>1.385</v>
       </c>
       <c r="F19">
-        <v>1.385</v>
+        <v>5.7</v>
       </c>
       <c r="G19">
-        <v>5.7</v>
+        <v>-2.5089999999999999</v>
       </c>
       <c r="H19">
-        <v>-2.5089999999999999</v>
-      </c>
-      <c r="I19">
         <v>-3.2709999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -6809,22 +6337,19 @@
         <v>0.874</v>
       </c>
       <c r="E20">
-        <v>1.972</v>
+        <v>2.004</v>
       </c>
       <c r="F20">
-        <v>2.004</v>
+        <v>5.5750000000000002</v>
       </c>
       <c r="G20">
-        <v>5.5750000000000002</v>
+        <v>-1.6910000000000001</v>
       </c>
       <c r="H20">
-        <v>-1.6910000000000001</v>
-      </c>
-      <c r="I20">
         <v>-2.5609999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -6839,22 +6364,19 @@
         <v>1.1060000000000001</v>
       </c>
       <c r="E21">
-        <v>1.9339999999999999</v>
+        <v>1.786</v>
       </c>
       <c r="F21">
-        <v>1.786</v>
+        <v>5.2919999999999998</v>
       </c>
       <c r="G21">
-        <v>5.2919999999999998</v>
+        <v>-0.94199999999999995</v>
       </c>
       <c r="H21">
-        <v>-0.94199999999999995</v>
-      </c>
-      <c r="I21">
         <v>-2.0550000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -6869,22 +6391,19 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="E22">
-        <v>1.61</v>
+        <v>1.8420000000000001</v>
       </c>
       <c r="F22">
-        <v>1.8420000000000001</v>
+        <v>5.1829999999999998</v>
       </c>
       <c r="G22">
-        <v>5.1829999999999998</v>
+        <v>-3.7320000000000002</v>
       </c>
       <c r="H22">
-        <v>-3.7320000000000002</v>
-      </c>
-      <c r="I22">
         <v>0.50900000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -6899,22 +6418,19 @@
         <v>-8.0879999999999992</v>
       </c>
       <c r="E23">
-        <v>1.431</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="F23">
-        <v>1.1639999999999999</v>
+        <v>7.6210000000000004</v>
       </c>
       <c r="G23">
-        <v>7.6210000000000004</v>
+        <v>-9.7260000000000009</v>
       </c>
       <c r="H23">
-        <v>-9.7260000000000009</v>
-      </c>
-      <c r="I23">
         <v>-0.63100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -6929,18 +6445,15 @@
         <v>4.4939999999999998</v>
       </c>
       <c r="E24">
-        <v>1.823</v>
+        <v>2.0150000000000001</v>
       </c>
       <c r="F24">
-        <v>2.0150000000000001</v>
+        <v>8.9239999999999995</v>
       </c>
       <c r="G24">
-        <v>8.9239999999999995</v>
+        <v>-7.3360000000000003</v>
       </c>
       <c r="H24">
-        <v>-7.3360000000000003</v>
-      </c>
-      <c r="I24">
         <v>-1.8049999999999999</v>
       </c>
     </row>
@@ -6951,44 +6464,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="A25:J25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -7005,19 +6515,16 @@
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="F2">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>-20.701000000000001</v>
       </c>
       <c r="H2">
-        <v>-20.701000000000001</v>
-      </c>
-      <c r="I2">
         <v>30.257000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -7035,19 +6542,16 @@
         <v>1.1739999999999999</v>
       </c>
       <c r="F3">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>6.86</v>
       </c>
       <c r="H3">
-        <v>6.86</v>
-      </c>
-      <c r="I3">
         <v>45.006</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -7065,19 +6569,16 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="F4">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.585</v>
       </c>
       <c r="H4">
-        <v>2.585</v>
-      </c>
-      <c r="I4">
         <v>41.859000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -7095,19 +6596,16 @@
         <v>-2.2879999999999998</v>
       </c>
       <c r="F5">
-        <v>-2.2879999999999998</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-4.6139999999999999</v>
       </c>
       <c r="H5">
-        <v>-4.6139999999999999</v>
-      </c>
-      <c r="I5">
         <v>36.188000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -7122,22 +6620,19 @@
         <v>1.3140000000000001</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="F6">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>8.0609999999999999</v>
       </c>
       <c r="H6">
-        <v>8.0609999999999999</v>
-      </c>
-      <c r="I6">
         <v>39.887999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -7152,22 +6647,19 @@
         <v>-2.3180000000000001</v>
       </c>
       <c r="E7">
-        <v>0.89700000000000002</v>
+        <v>1.6879999999999999</v>
       </c>
       <c r="F7">
-        <v>1.6879999999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>8.5649999999999995</v>
       </c>
       <c r="H7">
-        <v>8.5649999999999995</v>
-      </c>
-      <c r="I7">
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -7182,22 +6674,19 @@
         <v>0.72399999999999998</v>
       </c>
       <c r="E8">
-        <v>0.95199999999999996</v>
+        <v>-0.47499999999999998</v>
       </c>
       <c r="F8">
-        <v>-0.47499999999999998</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>16.327999999999999</v>
       </c>
       <c r="H8">
-        <v>16.327999999999999</v>
-      </c>
-      <c r="I8">
         <v>42.598999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -7212,22 +6701,19 @@
         <v>2.6930000000000001</v>
       </c>
       <c r="E9">
-        <v>0.153</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="F9">
-        <v>-0.31900000000000001</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>19.739000000000001</v>
       </c>
       <c r="H9">
-        <v>19.739000000000001</v>
-      </c>
-      <c r="I9">
         <v>45.164000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -7242,22 +6728,19 @@
         <v>-1.3680000000000001</v>
       </c>
       <c r="E10">
-        <v>0.96599999999999997</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="F10">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>3.1179999999999999</v>
       </c>
       <c r="H10">
-        <v>3.1179999999999999</v>
-      </c>
-      <c r="I10">
         <v>43.137999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -7272,22 +6755,19 @@
         <v>-3.286</v>
       </c>
       <c r="E11">
-        <v>2.0859999999999999</v>
+        <v>1.8819999999999999</v>
       </c>
       <c r="F11">
-        <v>1.8819999999999999</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>36.014000000000003</v>
       </c>
       <c r="H11">
-        <v>36.014000000000003</v>
-      </c>
-      <c r="I11">
         <v>43.444000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -7302,22 +6782,19 @@
         <v>-3.1360000000000001</v>
       </c>
       <c r="E12">
-        <v>1.034</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="F12">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3.61</v>
       </c>
       <c r="H12">
-        <v>3.61</v>
-      </c>
-      <c r="I12">
         <v>32.302999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -7332,22 +6809,19 @@
         <v>0.873</v>
       </c>
       <c r="E13">
-        <v>0.22700000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="F13">
-        <v>0.185</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>7.6120000000000001</v>
       </c>
       <c r="H13">
-        <v>7.6120000000000001</v>
-      </c>
-      <c r="I13">
         <v>36.594999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -7362,22 +6836,19 @@
         <v>2.0110000000000001</v>
       </c>
       <c r="E14">
-        <v>0.14099999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="F14">
-        <v>0.154</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G14">
-        <v>9.3000000000000007</v>
+        <v>25.632000000000001</v>
       </c>
       <c r="H14">
-        <v>25.632000000000001</v>
-      </c>
-      <c r="I14">
         <v>34.709000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -7392,22 +6863,19 @@
         <v>-0.435</v>
       </c>
       <c r="E15">
-        <v>0.112</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F15">
-        <v>3.7999999999999999E-2</v>
+        <v>8.5</v>
       </c>
       <c r="G15">
-        <v>8.5</v>
+        <v>15.786</v>
       </c>
       <c r="H15">
-        <v>15.786</v>
-      </c>
-      <c r="I15">
         <v>29.838000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -7422,22 +6890,19 @@
         <v>-3.2410000000000001</v>
       </c>
       <c r="E16">
-        <v>0.38900000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="F16">
-        <v>0.157</v>
+        <v>7.7</v>
       </c>
       <c r="G16">
-        <v>7.7</v>
+        <v>13.025</v>
       </c>
       <c r="H16">
-        <v>13.025</v>
-      </c>
-      <c r="I16">
         <v>20.881</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -7452,22 +6917,19 @@
         <v>-3.536</v>
       </c>
       <c r="E17">
-        <v>-0.20799999999999999</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="F17">
-        <v>1.2290000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="G17">
-        <v>6.9</v>
+        <v>3.5760000000000001</v>
       </c>
       <c r="H17">
-        <v>3.5760000000000001</v>
-      </c>
-      <c r="I17">
         <v>31.927</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -7482,22 +6944,19 @@
         <v>-1.5640000000000001</v>
       </c>
       <c r="E18">
-        <v>-0.311</v>
+        <v>-0.95</v>
       </c>
       <c r="F18">
-        <v>-0.95</v>
+        <v>7.7</v>
       </c>
       <c r="G18">
-        <v>7.7</v>
+        <v>-14.523</v>
       </c>
       <c r="H18">
-        <v>-14.523</v>
-      </c>
-      <c r="I18">
         <v>16.681999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -7512,22 +6971,19 @@
         <v>-3.6</v>
       </c>
       <c r="E19">
-        <v>-0.38300000000000001</v>
+        <v>-0.627</v>
       </c>
       <c r="F19">
-        <v>-0.627</v>
+        <v>8.5</v>
       </c>
       <c r="G19">
-        <v>8.5</v>
+        <v>-21.68</v>
       </c>
       <c r="H19">
-        <v>-21.68</v>
-      </c>
-      <c r="I19">
         <v>12.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -7542,22 +6998,19 @@
         <v>-1.5609999999999999</v>
       </c>
       <c r="E20">
-        <v>-1.2609999999999999</v>
+        <v>-0.46</v>
       </c>
       <c r="F20">
-        <v>-0.46</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G20">
-        <v>9.3000000000000007</v>
+        <v>-10.622999999999999</v>
       </c>
       <c r="H20">
-        <v>-10.622999999999999</v>
-      </c>
-      <c r="I20">
         <v>16.367000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -7572,22 +7025,19 @@
         <v>-2.8639999999999999</v>
       </c>
       <c r="E21">
-        <v>1.0529999999999999</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="F21">
-        <v>-6.0000000000000001E-3</v>
+        <v>9.3160000000000007</v>
       </c>
       <c r="G21">
-        <v>9.3160000000000007</v>
+        <v>-3.5590000000000002</v>
       </c>
       <c r="H21">
-        <v>-3.5590000000000002</v>
-      </c>
-      <c r="I21">
         <v>7.87</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -7602,22 +7052,19 @@
         <v>2.8330000000000002</v>
       </c>
       <c r="E22">
-        <v>-0.48099999999999998</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="F22">
-        <v>-8.3000000000000004E-2</v>
+        <v>9.3160000000000007</v>
       </c>
       <c r="G22">
-        <v>9.3160000000000007</v>
+        <v>-10.455</v>
       </c>
       <c r="H22">
-        <v>-10.455</v>
-      </c>
-      <c r="I22">
         <v>4.3230000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -7635,19 +7082,16 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="F23">
-        <v>0.90300000000000002</v>
+        <v>9.3160000000000007</v>
       </c>
       <c r="G23">
-        <v>9.3160000000000007</v>
+        <v>-26.577999999999999</v>
       </c>
       <c r="H23">
-        <v>-26.577999999999999</v>
-      </c>
-      <c r="I23">
         <v>-1.2490000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -7665,15 +7109,12 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="F24">
-        <v>0.97099999999999997</v>
+        <v>9.3160000000000007</v>
       </c>
       <c r="G24">
-        <v>9.3160000000000007</v>
+        <v>-21.635000000000002</v>
       </c>
       <c r="H24">
-        <v>-21.635000000000002</v>
-      </c>
-      <c r="I24">
         <v>2.129</v>
       </c>
     </row>
@@ -7684,42 +7125,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -7733,19 +7173,19 @@
         <v>10.113</v>
       </c>
       <c r="E2">
-        <v>1.996</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F2">
-        <v>0.18099999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>-3.802</v>
       </c>
       <c r="H2">
-        <v>-3.802</v>
-      </c>
-      <c r="I2">
         <v>-4.8209999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -7760,19 +7200,19 @@
         <v>7.2229999999999999</v>
       </c>
       <c r="E3">
-        <v>-0.82599999999999996</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="F3">
-        <v>0.34100000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-4.8150000000000004</v>
       </c>
       <c r="H3">
-        <v>-4.8150000000000004</v>
-      </c>
-      <c r="I3">
         <v>-2.6269999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -7787,19 +7227,19 @@
         <v>6.3879999999999999</v>
       </c>
       <c r="E4">
-        <v>-0.11700000000000001</v>
+        <v>-0.52700000000000002</v>
       </c>
       <c r="F4">
-        <v>-0.52700000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-5.1459999999999999</v>
       </c>
       <c r="H4">
-        <v>-5.1459999999999999</v>
-      </c>
-      <c r="I4">
         <v>-0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -7814,19 +7254,19 @@
         <v>4.5940000000000003</v>
       </c>
       <c r="E5">
-        <v>-3.5999999999999997E-2</v>
+        <v>1.427</v>
       </c>
       <c r="F5">
-        <v>1.427</v>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-6.3810000000000002</v>
       </c>
       <c r="H5">
-        <v>-6.3810000000000002</v>
-      </c>
-      <c r="I5">
         <v>-2.266</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -7841,19 +7281,19 @@
         <v>6.6180000000000003</v>
       </c>
       <c r="E6">
-        <v>1.0269999999999999</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="F6">
-        <v>-4.2000000000000003E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-6.1689999999999996</v>
       </c>
       <c r="H6">
-        <v>-6.1689999999999996</v>
-      </c>
-      <c r="I6">
         <v>-3.56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -7868,19 +7308,19 @@
         <v>8.5359999999999996</v>
       </c>
       <c r="E7">
-        <v>3.9249999999999998</v>
+        <v>5.2649999999999997</v>
       </c>
       <c r="F7">
-        <v>5.2649999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-3.5619999999999998</v>
       </c>
       <c r="H7">
-        <v>-3.5619999999999998</v>
-      </c>
-      <c r="I7">
         <v>-2.17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -7895,19 +7335,19 @@
         <v>11.494999999999999</v>
       </c>
       <c r="E8">
-        <v>6.3490000000000002</v>
+        <v>8.4109999999999996</v>
       </c>
       <c r="F8">
-        <v>8.4109999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-0.38400000000000001</v>
       </c>
       <c r="H8">
-        <v>-0.38400000000000001</v>
-      </c>
-      <c r="I8">
         <v>-3.8239999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -7922,19 +7362,19 @@
         <v>9.1479999999999997</v>
       </c>
       <c r="E9">
-        <v>6.1429999999999998</v>
+        <v>4.2009999999999996</v>
       </c>
       <c r="F9">
-        <v>4.2009999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-0.17199999999999999</v>
       </c>
       <c r="H9">
-        <v>-0.17199999999999999</v>
-      </c>
-      <c r="I9">
         <v>-0.64600000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -7949,19 +7389,19 @@
         <v>8.6709999999999994</v>
       </c>
       <c r="E10">
-        <v>7.6680000000000001</v>
+        <v>13.952</v>
       </c>
       <c r="F10">
-        <v>13.952</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.72699999999999998</v>
       </c>
       <c r="H10">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="I10">
         <v>-1.6639999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -7976,19 +7416,19 @@
         <v>5.2130000000000001</v>
       </c>
       <c r="E11">
-        <v>24.997</v>
+        <v>12.52</v>
       </c>
       <c r="F11">
-        <v>12.52</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.503</v>
       </c>
       <c r="H11">
-        <v>0.503</v>
-      </c>
-      <c r="I11">
         <v>-6.62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -8003,19 +7443,19 @@
         <v>-1.355</v>
       </c>
       <c r="E12">
-        <v>-0.66300000000000003</v>
+        <v>5.3250000000000002</v>
       </c>
       <c r="F12">
-        <v>5.3250000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-4.7809999999999997</v>
       </c>
       <c r="H12">
-        <v>-4.7809999999999997</v>
-      </c>
-      <c r="I12">
         <v>-9.9149999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -8030,19 +7470,19 @@
         <v>4.335</v>
       </c>
       <c r="E13">
-        <v>3.9969999999999999</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="F13">
-        <v>3.1429999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-3.7949999999999999</v>
       </c>
       <c r="H13">
-        <v>-3.7949999999999999</v>
-      </c>
-      <c r="I13">
         <v>-8.7509999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -8057,19 +7497,19 @@
         <v>5.31</v>
       </c>
       <c r="E14">
-        <v>5.4779999999999998</v>
+        <v>4.9080000000000004</v>
       </c>
       <c r="F14">
-        <v>4.9080000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-4.6950000000000003</v>
       </c>
       <c r="H14">
-        <v>-4.6950000000000003</v>
-      </c>
-      <c r="I14">
         <v>-8.0310000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -8084,19 +7524,19 @@
         <v>6.0430000000000001</v>
       </c>
       <c r="E15">
-        <v>2.9249999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="F15">
-        <v>2.54</v>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-4.5250000000000004</v>
       </c>
       <c r="H15">
-        <v>-4.5250000000000004</v>
-      </c>
-      <c r="I15">
         <v>-8.6229999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -8111,19 +7551,19 @@
         <v>5.5990000000000002</v>
       </c>
       <c r="E16">
-        <v>2.9550000000000001</v>
+        <v>4.6760000000000002</v>
       </c>
       <c r="F16">
-        <v>4.6760000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-2.6160000000000001</v>
       </c>
       <c r="H16">
-        <v>-2.6160000000000001</v>
-      </c>
-      <c r="I16">
         <v>-8.4619999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -8138,19 +7578,19 @@
         <v>5.431</v>
       </c>
       <c r="E17">
-        <v>3.8519999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="F17">
-        <v>1.04</v>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-1.643</v>
       </c>
       <c r="H17">
-        <v>-1.643</v>
-      </c>
-      <c r="I17">
         <v>-8.5559999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -8165,19 +7605,19 @@
         <v>5.3049999999999997</v>
       </c>
       <c r="E18">
-        <v>1.2250000000000001</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="F18">
-        <v>2.8420000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-0.64600000000000002</v>
       </c>
       <c r="H18">
-        <v>-0.64600000000000002</v>
-      </c>
-      <c r="I18">
         <v>-8.7390000000000008</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -8192,19 +7632,19 @@
         <v>5.1760000000000002</v>
       </c>
       <c r="E19">
-        <v>3.0249999999999999</v>
+        <v>3.8809999999999998</v>
       </c>
       <c r="F19">
-        <v>3.8809999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>-0.3</v>
       </c>
       <c r="H19">
-        <v>-0.3</v>
-      </c>
-      <c r="I19">
         <v>-8.4789999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -8219,19 +7659,19 @@
         <v>5.3929999999999998</v>
       </c>
       <c r="E20">
-        <v>2.9060000000000001</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="F20">
-        <v>2.2309999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>-0.77500000000000002</v>
       </c>
       <c r="H20">
-        <v>-0.77500000000000002</v>
-      </c>
-      <c r="I20">
         <v>-7.915</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -8246,19 +7686,19 @@
         <v>5.944</v>
       </c>
       <c r="E21">
-        <v>2.387</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="F21">
-        <v>1.6319999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.71699999999999997</v>
       </c>
       <c r="H21">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="I21">
         <v>-11.398999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -8273,19 +7713,19 @@
         <v>5.4630000000000001</v>
       </c>
       <c r="E22">
-        <v>2.371</v>
+        <v>2.6659999999999999</v>
       </c>
       <c r="F22">
-        <v>2.6659999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.44800000000000001</v>
       </c>
       <c r="H22">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="I22">
         <v>-12.532999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -8300,19 +7740,19 @@
         <v>-3.0419999999999998</v>
       </c>
       <c r="E23">
-        <v>1.548</v>
+        <v>0.873</v>
       </c>
       <c r="F23">
-        <v>0.873</v>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>-1.87</v>
       </c>
       <c r="H23">
-        <v>-1.87</v>
-      </c>
-      <c r="I23">
         <v>-22.178999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -8327,15 +7767,15 @@
         <v>4.4889999999999999</v>
       </c>
       <c r="E24">
-        <v>1.891</v>
+        <v>2.7839999999999998</v>
       </c>
       <c r="F24">
-        <v>2.7839999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>-1.7470000000000001</v>
       </c>
       <c r="H24">
-        <v>-1.7470000000000001</v>
-      </c>
-      <c r="I24">
         <v>-17.579000000000001</v>
       </c>
     </row>
@@ -8346,44 +7786,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -8397,22 +7834,19 @@
         <v>6.8220000000000001</v>
       </c>
       <c r="E2">
-        <v>-1.4</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>3.1</v>
       </c>
       <c r="G2">
-        <v>3.1</v>
+        <v>-2.323</v>
       </c>
       <c r="H2">
-        <v>-2.323</v>
-      </c>
-      <c r="I2">
         <v>1.94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -8427,22 +7861,19 @@
         <v>7.7030000000000003</v>
       </c>
       <c r="E3">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="F3">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>-2.8460000000000001</v>
       </c>
       <c r="H3">
-        <v>-2.8460000000000001</v>
-      </c>
-      <c r="I3">
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -8457,22 +7888,19 @@
         <v>7.6050000000000004</v>
       </c>
       <c r="E4">
-        <v>0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="F4">
-        <v>-0.3</v>
+        <v>3.6</v>
       </c>
       <c r="G4">
-        <v>3.6</v>
+        <v>-2.5960000000000001</v>
       </c>
       <c r="H4">
-        <v>-2.5960000000000001</v>
-      </c>
-      <c r="I4">
         <v>1.3049999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -8487,22 +7915,19 @@
         <v>8.4450000000000003</v>
       </c>
       <c r="E5">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="F5">
-        <v>-0.4</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>-2.8839999999999999</v>
       </c>
       <c r="H5">
-        <v>-2.8839999999999999</v>
-      </c>
-      <c r="I5">
         <v>2.4169999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -8517,22 +7942,19 @@
         <v>9.359</v>
       </c>
       <c r="E6">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="F6">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="G6">
-        <v>4.3</v>
+        <v>-2.3940000000000001</v>
       </c>
       <c r="H6">
-        <v>-2.3940000000000001</v>
-      </c>
-      <c r="I6">
         <v>2.5979999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -8547,22 +7969,19 @@
         <v>9.5069999999999997</v>
       </c>
       <c r="E7">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="F7">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="G7">
-        <v>4.2</v>
+        <v>-1.512</v>
       </c>
       <c r="H7">
-        <v>-1.512</v>
-      </c>
-      <c r="I7">
         <v>3.536</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -8577,22 +7996,19 @@
         <v>10.711</v>
       </c>
       <c r="E8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="F8">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="G8">
-        <v>4.2</v>
+        <v>-1.401</v>
       </c>
       <c r="H8">
-        <v>-1.401</v>
-      </c>
-      <c r="I8">
         <v>5.78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -8607,22 +8023,19 @@
         <v>12.128</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="F9">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G9">
-        <v>4.0999999999999996</v>
+        <v>-1.1439999999999999</v>
       </c>
       <c r="H9">
-        <v>-1.1439999999999999</v>
-      </c>
-      <c r="I9">
         <v>8.4179999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -8637,22 +8050,19 @@
         <v>13.664</v>
       </c>
       <c r="E10">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="F10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="H10">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="I10">
         <v>9.9329999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -8667,22 +8077,19 @@
         <v>9.0950000000000006</v>
       </c>
       <c r="E11">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="F11">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="G11">
-        <v>4.2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="H11">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="I11">
         <v>9.1880000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -8697,22 +8104,19 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="E12">
-        <v>-0.7</v>
+        <v>1.9</v>
       </c>
       <c r="F12">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="G12">
-        <v>4.3</v>
+        <v>-1.7509999999999999</v>
       </c>
       <c r="H12">
-        <v>-1.7509999999999999</v>
-      </c>
-      <c r="I12">
         <v>4.78</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -8727,22 +8131,19 @@
         <v>10.034000000000001</v>
       </c>
       <c r="E13">
-        <v>3.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F13">
-        <v>4.5999999999999996</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G13">
-        <v>4.1399999999999997</v>
+        <v>-0.36199999999999999</v>
       </c>
       <c r="H13">
-        <v>-0.36199999999999999</v>
-      </c>
-      <c r="I13">
         <v>3.9409999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -8757,22 +8158,19 @@
         <v>8.9770000000000003</v>
       </c>
       <c r="E14">
-        <v>5.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F14">
-        <v>4.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="G14">
-        <v>4.09</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="H14">
-        <v>-9.8000000000000004E-2</v>
-      </c>
-      <c r="I14">
         <v>1.8160000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -8787,22 +8185,19 @@
         <v>7.367</v>
       </c>
       <c r="E15">
-        <v>2.6459999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="F15">
-        <v>2.5</v>
+        <v>4.09</v>
       </c>
       <c r="G15">
-        <v>4.09</v>
+        <v>-0.30199999999999999</v>
       </c>
       <c r="H15">
-        <v>-0.30199999999999999</v>
-      </c>
-      <c r="I15">
         <v>2.5219999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -8817,22 +8212,19 @@
         <v>7.2709999999999999</v>
       </c>
       <c r="E16">
-        <v>2.6240000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="F16">
-        <v>2.5</v>
+        <v>4.05</v>
       </c>
       <c r="G16">
-        <v>4.05</v>
+        <v>-0.83299999999999996</v>
       </c>
       <c r="H16">
-        <v>-0.83299999999999996</v>
-      </c>
-      <c r="I16">
         <v>1.54</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -8847,22 +8239,19 @@
         <v>6.7430000000000003</v>
       </c>
       <c r="E17">
-        <v>1.988</v>
+        <v>1.5</v>
       </c>
       <c r="F17">
-        <v>1.5</v>
+        <v>4.09</v>
       </c>
       <c r="G17">
-        <v>4.09</v>
+        <v>-0.90900000000000003</v>
       </c>
       <c r="H17">
-        <v>-0.90900000000000003</v>
-      </c>
-      <c r="I17">
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -8877,22 +8266,19 @@
         <v>6.3710000000000004</v>
       </c>
       <c r="E18">
-        <v>1.4410000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="F18">
-        <v>1.6</v>
+        <v>4.05</v>
       </c>
       <c r="G18">
-        <v>4.05</v>
+        <v>-2.8149999999999999</v>
       </c>
       <c r="H18">
-        <v>-2.8149999999999999</v>
-      </c>
-      <c r="I18">
         <v>2.7370000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -8907,22 +8293,19 @@
         <v>6.2240000000000002</v>
       </c>
       <c r="E19">
-        <v>2.0030000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="F19">
-        <v>2.1</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="G19">
-        <v>4.0199999999999996</v>
+        <v>-3.702</v>
       </c>
       <c r="H19">
-        <v>-3.702</v>
-      </c>
-      <c r="I19">
         <v>1.8009999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -8937,22 +8320,19 @@
         <v>6.38</v>
       </c>
       <c r="E20">
-        <v>1.5580000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="F20">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="G20">
-        <v>3.9</v>
+        <v>-3.835</v>
       </c>
       <c r="H20">
-        <v>-3.835</v>
-      </c>
-      <c r="I20">
         <v>1.591</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -8967,22 +8347,19 @@
         <v>6.3440000000000003</v>
       </c>
       <c r="E21">
-        <v>2.105</v>
+        <v>1.9</v>
       </c>
       <c r="F21">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="G21">
-        <v>3.8</v>
+        <v>-4.6550000000000002</v>
       </c>
       <c r="H21">
-        <v>-4.6550000000000002</v>
-      </c>
-      <c r="I21">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -8997,22 +8374,19 @@
         <v>5.7560000000000002</v>
       </c>
       <c r="E22">
-        <v>2.903</v>
+        <v>4.5</v>
       </c>
       <c r="F22">
-        <v>4.5</v>
+        <v>3.62</v>
       </c>
       <c r="G22">
-        <v>3.62</v>
+        <v>-6.37</v>
       </c>
       <c r="H22">
-        <v>-6.37</v>
-      </c>
-      <c r="I22">
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -9027,22 +8401,19 @@
         <v>0.872</v>
       </c>
       <c r="E23">
-        <v>3.0459999999999998</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="F23">
-        <v>0.95299999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="G23">
-        <v>4.3</v>
+        <v>-11.228</v>
       </c>
       <c r="H23">
-        <v>-11.228</v>
-      </c>
-      <c r="I23">
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -9057,18 +8428,15 @@
         <v>8.9139999999999997</v>
       </c>
       <c r="E24">
-        <v>2.5510000000000002</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="F24">
-        <v>2.9830000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="G24">
-        <v>3.8</v>
+        <v>-9.5690000000000008</v>
       </c>
       <c r="H24">
-        <v>-9.5690000000000008</v>
-      </c>
-      <c r="I24">
         <v>1.0469999999999999</v>
       </c>
     </row>
@@ -9079,44 +8447,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -9130,22 +8495,19 @@
         <v>-0.36</v>
       </c>
       <c r="E2">
-        <v>20.47</v>
+        <v>1.901</v>
       </c>
       <c r="F2">
-        <v>1.901</v>
+        <v>6.36</v>
       </c>
       <c r="G2">
-        <v>6.36</v>
+        <v>-0.95899999999999996</v>
       </c>
       <c r="H2">
-        <v>-0.95899999999999996</v>
-      </c>
-      <c r="I2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -9160,22 +8522,19 @@
         <v>3.78</v>
       </c>
       <c r="E3">
-        <v>3.6880000000000002</v>
+        <v>9.33</v>
       </c>
       <c r="F3">
-        <v>9.33</v>
+        <v>6.08</v>
       </c>
       <c r="G3">
-        <v>6.08</v>
+        <v>-1.87</v>
       </c>
       <c r="H3">
-        <v>-1.87</v>
-      </c>
-      <c r="I3">
         <v>4.452</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -9190,22 +8549,19 @@
         <v>2.1859999999999999</v>
       </c>
       <c r="E4">
-        <v>11.465999999999999</v>
+        <v>12.579000000000001</v>
       </c>
       <c r="F4">
-        <v>12.579000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="G4">
-        <v>8.1</v>
+        <v>-1.7629999999999999</v>
       </c>
       <c r="H4">
-        <v>-1.7629999999999999</v>
-      </c>
-      <c r="I4">
         <v>3.9540000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -9220,22 +8576,19 @@
         <v>3.03</v>
       </c>
       <c r="E5">
-        <v>11.903</v>
+        <v>9.9380000000000006</v>
       </c>
       <c r="F5">
-        <v>9.9380000000000006</v>
+        <v>9.06</v>
       </c>
       <c r="G5">
-        <v>9.06</v>
+        <v>-0.57599999999999996</v>
       </c>
       <c r="H5">
-        <v>-0.57599999999999996</v>
-      </c>
-      <c r="I5">
         <v>3.6760000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -9250,22 +8603,19 @@
         <v>3.3069999999999999</v>
       </c>
       <c r="E6">
-        <v>6.7919999999999998</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="F6">
-        <v>5.1840000000000002</v>
+        <v>9.67</v>
       </c>
       <c r="G6">
-        <v>9.67</v>
+        <v>-1.077</v>
       </c>
       <c r="H6">
-        <v>-1.077</v>
-      </c>
-      <c r="I6">
         <v>3.1739999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -9280,22 +8630,19 @@
         <v>3.5539999999999998</v>
       </c>
       <c r="E7">
-        <v>6.06</v>
+        <v>6.3849999999999998</v>
       </c>
       <c r="F7">
-        <v>6.3849999999999998</v>
+        <v>9.86</v>
       </c>
       <c r="G7">
-        <v>9.86</v>
+        <v>-0.26</v>
       </c>
       <c r="H7">
-        <v>-0.26</v>
-      </c>
-      <c r="I7">
         <v>1.881</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -9310,22 +8657,19 @@
         <v>4.2060000000000004</v>
       </c>
       <c r="E8">
-        <v>10.465</v>
+        <v>17.138000000000002</v>
       </c>
       <c r="F8">
-        <v>17.138000000000002</v>
+        <v>11.24</v>
       </c>
       <c r="G8">
-        <v>11.24</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="H8">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="I8">
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -9340,22 +8684,19 @@
         <v>4.0179999999999998</v>
       </c>
       <c r="E9">
-        <v>13.101000000000001</v>
+        <v>6.585</v>
       </c>
       <c r="F9">
-        <v>6.585</v>
+        <v>10.28</v>
       </c>
       <c r="G9">
-        <v>10.28</v>
+        <v>0.372</v>
       </c>
       <c r="H9">
-        <v>0.372</v>
-      </c>
-      <c r="I9">
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -9370,22 +8711,19 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="E10">
-        <v>6.32</v>
+        <v>5.7939999999999996</v>
       </c>
       <c r="F10">
-        <v>5.7939999999999996</v>
+        <v>9.11</v>
       </c>
       <c r="G10">
-        <v>9.11</v>
+        <v>-0.94699999999999995</v>
       </c>
       <c r="H10">
-        <v>-0.94699999999999995</v>
-      </c>
-      <c r="I10">
         <v>1.4450000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -9400,22 +8738,19 @@
         <v>5.931</v>
       </c>
       <c r="E11">
-        <v>9.8680000000000003</v>
+        <v>11.057</v>
       </c>
       <c r="F11">
-        <v>11.057</v>
+        <v>8.39</v>
       </c>
       <c r="G11">
-        <v>8.39</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H11">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="I11">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -9430,22 +8765,19 @@
         <v>3.23</v>
       </c>
       <c r="E12">
-        <v>4.8029999999999999</v>
+        <v>2.7690000000000001</v>
       </c>
       <c r="F12">
-        <v>2.7690000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="G12">
-        <v>7.87</v>
+        <v>-1.6439999999999999</v>
       </c>
       <c r="H12">
-        <v>-1.6439999999999999</v>
-      </c>
-      <c r="I12">
         <v>1.84</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -9460,22 +8792,19 @@
         <v>4.8819999999999997</v>
       </c>
       <c r="E13">
-        <v>5.141</v>
+        <v>6.9630000000000001</v>
       </c>
       <c r="F13">
-        <v>6.9630000000000001</v>
+        <v>7.14</v>
       </c>
       <c r="G13">
-        <v>7.14</v>
+        <v>-1.242</v>
       </c>
       <c r="H13">
-        <v>-1.242</v>
-      </c>
-      <c r="I13">
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -9490,22 +8819,19 @@
         <v>4.2619999999999996</v>
       </c>
       <c r="E14">
-        <v>5.343</v>
+        <v>3.7789999999999999</v>
       </c>
       <c r="F14">
-        <v>3.7789999999999999</v>
+        <v>6.56</v>
       </c>
       <c r="G14">
-        <v>6.56</v>
+        <v>-0.70299999999999996</v>
       </c>
       <c r="H14">
-        <v>-0.70299999999999996</v>
-      </c>
-      <c r="I14">
         <v>0.189</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -9520,22 +8846,19 @@
         <v>4.5460000000000003</v>
       </c>
       <c r="E15">
-        <v>3.9809999999999999</v>
+        <v>3.6549999999999998</v>
       </c>
       <c r="F15">
-        <v>3.6549999999999998</v>
+        <v>6.14</v>
       </c>
       <c r="G15">
-        <v>6.14</v>
+        <v>-1.5860000000000001</v>
       </c>
       <c r="H15">
-        <v>-1.5860000000000001</v>
-      </c>
-      <c r="I15">
         <v>-2.657</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -9550,22 +8873,19 @@
         <v>4.1180000000000003</v>
       </c>
       <c r="E16">
-        <v>6.4109999999999996</v>
+        <v>8.0779999999999994</v>
       </c>
       <c r="F16">
-        <v>8.0779999999999994</v>
+        <v>6.25</v>
       </c>
       <c r="G16">
-        <v>6.25</v>
+        <v>-2.2170000000000001</v>
       </c>
       <c r="H16">
-        <v>-2.2170000000000001</v>
-      </c>
-      <c r="I16">
         <v>-3.1760000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -9580,22 +8900,19 @@
         <v>3.613</v>
       </c>
       <c r="E17">
-        <v>6.3970000000000002</v>
+        <v>8.3629999999999995</v>
       </c>
       <c r="F17">
-        <v>8.3629999999999995</v>
+        <v>5.94</v>
       </c>
       <c r="G17">
-        <v>5.94</v>
+        <v>-2.1459999999999999</v>
       </c>
       <c r="H17">
-        <v>-2.1459999999999999</v>
-      </c>
-      <c r="I17">
         <v>-3.0870000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -9610,22 +8927,19 @@
         <v>3.472</v>
       </c>
       <c r="E18">
-        <v>6.3609999999999998</v>
+        <v>3.359</v>
       </c>
       <c r="F18">
-        <v>3.359</v>
+        <v>6.18</v>
       </c>
       <c r="G18">
-        <v>6.18</v>
+        <v>-2.6040000000000001</v>
       </c>
       <c r="H18">
-        <v>-2.6040000000000001</v>
-      </c>
-      <c r="I18">
         <v>-2.0350000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -9640,22 +8954,19 @@
         <v>3.851</v>
       </c>
       <c r="E19">
-        <v>3.5270000000000001</v>
+        <v>3.0209999999999999</v>
       </c>
       <c r="F19">
-        <v>3.0209999999999999</v>
+        <v>5.61</v>
       </c>
       <c r="G19">
-        <v>5.61</v>
+        <v>-2.4860000000000002</v>
       </c>
       <c r="H19">
-        <v>-2.4860000000000002</v>
-      </c>
-      <c r="I19">
         <v>-1.819</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -9670,22 +8981,19 @@
         <v>3.92</v>
       </c>
       <c r="E20">
-        <v>3.8090000000000002</v>
+        <v>3.6080000000000001</v>
       </c>
       <c r="F20">
-        <v>3.6080000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="G20">
-        <v>5.5</v>
+        <v>-2.5089999999999999</v>
       </c>
       <c r="H20">
-        <v>-2.5089999999999999</v>
-      </c>
-      <c r="I20">
         <v>-1.595</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -9700,22 +9008,19 @@
         <v>4.0529999999999999</v>
       </c>
       <c r="E21">
-        <v>3.2919999999999998</v>
+        <v>3.157</v>
       </c>
       <c r="F21">
-        <v>3.157</v>
+        <v>5.34</v>
       </c>
       <c r="G21">
-        <v>5.34</v>
+        <v>-1.75</v>
       </c>
       <c r="H21">
-        <v>-1.75</v>
-      </c>
-      <c r="I21">
         <v>-2.9380000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -9730,22 +9035,19 @@
         <v>3.9430000000000001</v>
       </c>
       <c r="E22">
-        <v>2.82</v>
+        <v>2.5859999999999999</v>
       </c>
       <c r="F22">
-        <v>2.5859999999999999</v>
+        <v>5.28</v>
       </c>
       <c r="G22">
-        <v>5.28</v>
+        <v>-2.2290000000000001</v>
       </c>
       <c r="H22">
-        <v>-2.2290000000000001</v>
-      </c>
-      <c r="I22">
         <v>-2.7149999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -9760,22 +9062,19 @@
         <v>-0.504</v>
       </c>
       <c r="E23">
-        <v>2.87</v>
+        <v>3.0920000000000001</v>
       </c>
       <c r="F23">
-        <v>3.0920000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="G23">
-        <v>7.5</v>
+        <v>-5.01</v>
       </c>
       <c r="H23">
-        <v>-5.01</v>
-      </c>
-      <c r="I23">
         <v>-3.169</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -9790,18 +9089,15 @@
         <v>7.1529999999999996</v>
       </c>
       <c r="E24">
-        <v>2.9369999999999998</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>-3.9780000000000002</v>
       </c>
       <c r="H24">
-        <v>-3.9780000000000002</v>
-      </c>
-      <c r="I24">
         <v>-2.6840000000000002</v>
       </c>
     </row>
@@ -9812,44 +9108,41 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -9863,22 +9156,19 @@
         <v>-0.44</v>
       </c>
       <c r="E2">
-        <v>-0.34</v>
+        <v>-0.996</v>
       </c>
       <c r="F2">
-        <v>-0.996</v>
+        <v>4.6669999999999998</v>
       </c>
       <c r="G2">
-        <v>4.6669999999999998</v>
+        <v>-6.8730000000000002</v>
       </c>
       <c r="H2">
-        <v>-6.8730000000000002</v>
-      </c>
-      <c r="I2">
         <v>2.504</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -9893,22 +9183,19 @@
         <v>2.5819999999999999</v>
       </c>
       <c r="E3">
-        <v>-0.67500000000000004</v>
+        <v>-0.754</v>
       </c>
       <c r="F3">
-        <v>-0.754</v>
+        <v>4.7329999999999997</v>
       </c>
       <c r="G3">
-        <v>4.7329999999999997</v>
+        <v>-8.2520000000000007</v>
       </c>
       <c r="H3">
-        <v>-8.2520000000000007</v>
-      </c>
-      <c r="I3">
         <v>2.673</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -9923,22 +9210,19 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="E4">
-        <v>-0.74</v>
+        <v>-0.996</v>
       </c>
       <c r="F4">
-        <v>-0.996</v>
+        <v>5.0419999999999998</v>
       </c>
       <c r="G4">
-        <v>5.0419999999999998</v>
+        <v>-6.5380000000000003</v>
       </c>
       <c r="H4">
-        <v>-6.5380000000000003</v>
-      </c>
-      <c r="I4">
         <v>2.0030000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -9953,22 +9237,19 @@
         <v>-9.2999999999999999E-2</v>
       </c>
       <c r="E5">
-        <v>-0.92400000000000004</v>
+        <v>-0.52700000000000002</v>
       </c>
       <c r="F5">
-        <v>-0.52700000000000002</v>
+        <v>5.3579999999999997</v>
       </c>
       <c r="G5">
-        <v>5.3579999999999997</v>
+        <v>-7.9139999999999997</v>
       </c>
       <c r="H5">
-        <v>-7.9139999999999997</v>
-      </c>
-      <c r="I5">
         <v>2.6520000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -9983,22 +9264,19 @@
         <v>1.3420000000000001</v>
       </c>
       <c r="E6">
-        <v>-0.25900000000000001</v>
+        <v>-0.30299999999999999</v>
       </c>
       <c r="F6">
-        <v>-0.30299999999999999</v>
+        <v>5.242</v>
       </c>
       <c r="G6">
-        <v>5.242</v>
+        <v>-8.0459999999999994</v>
       </c>
       <c r="H6">
-        <v>-8.0459999999999994</v>
-      </c>
-      <c r="I6">
         <v>3.1360000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -10013,22 +9291,19 @@
         <v>2.125</v>
       </c>
       <c r="E7">
-        <v>-0.01</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="F7">
-        <v>0.51600000000000001</v>
+        <v>4.7329999999999997</v>
       </c>
       <c r="G7">
-        <v>4.7329999999999997</v>
+        <v>-5.8810000000000002</v>
       </c>
       <c r="H7">
-        <v>-5.8810000000000002</v>
-      </c>
-      <c r="I7">
         <v>3.7810000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -10043,22 +9318,19 @@
         <v>1.649</v>
       </c>
       <c r="E8">
-        <v>-0.28299999999999997</v>
+        <v>-0.75</v>
       </c>
       <c r="F8">
-        <v>-0.75</v>
+        <v>4.4249999999999998</v>
       </c>
       <c r="G8">
-        <v>4.4249999999999998</v>
+        <v>-4.9630000000000001</v>
       </c>
       <c r="H8">
-        <v>-4.9630000000000001</v>
-      </c>
-      <c r="I8">
         <v>3.5779999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -10073,22 +9345,19 @@
         <v>1.425</v>
       </c>
       <c r="E9">
-        <v>0.252</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="F9">
-        <v>0.35899999999999999</v>
+        <v>4.117</v>
       </c>
       <c r="G9">
-        <v>4.117</v>
+        <v>-3.492</v>
       </c>
       <c r="H9">
-        <v>-3.492</v>
-      </c>
-      <c r="I9">
         <v>3.8530000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -10103,22 +9372,19 @@
         <v>1.645</v>
       </c>
       <c r="E10">
-        <v>6.3E-2</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="F10">
-        <v>0.57099999999999995</v>
+        <v>3.8330000000000002</v>
       </c>
       <c r="G10">
-        <v>3.8330000000000002</v>
+        <v>-3.21</v>
       </c>
       <c r="H10">
-        <v>-3.21</v>
-      </c>
-      <c r="I10">
         <v>4.6980000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -10133,22 +9399,19 @@
         <v>-1.0429999999999999</v>
       </c>
       <c r="E11">
-        <v>1.3839999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="F11">
-        <v>1.054</v>
+        <v>3.9830000000000001</v>
       </c>
       <c r="G11">
-        <v>3.9830000000000001</v>
+        <v>-4.5309999999999997</v>
       </c>
       <c r="H11">
-        <v>-4.5309999999999997</v>
-      </c>
-      <c r="I11">
         <v>2.831</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -10163,22 +9426,19 @@
         <v>-5.3109999999999999</v>
       </c>
       <c r="E12">
-        <v>-1.35</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="F12">
-        <v>-2.0299999999999998</v>
+        <v>5.0750000000000002</v>
       </c>
       <c r="G12">
-        <v>5.0750000000000002</v>
+        <v>-10.192</v>
       </c>
       <c r="H12">
-        <v>-10.192</v>
-      </c>
-      <c r="I12">
         <v>2.7770000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10193,22 +9453,19 @@
         <v>4.1559999999999997</v>
       </c>
       <c r="E13">
-        <v>-0.72099999999999997</v>
+        <v>-0.248</v>
       </c>
       <c r="F13">
-        <v>-0.248</v>
+        <v>5.0579999999999998</v>
       </c>
       <c r="G13">
-        <v>5.0579999999999998</v>
+        <v>-9.5340000000000007</v>
       </c>
       <c r="H13">
-        <v>-9.5340000000000007</v>
-      </c>
-      <c r="I13">
         <v>3.8769999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -10223,22 +9480,19 @@
         <v>-0.3</v>
       </c>
       <c r="E14">
-        <v>-0.27300000000000002</v>
+        <v>-0.29499999999999998</v>
       </c>
       <c r="F14">
-        <v>-0.29499999999999998</v>
+        <v>4.5830000000000002</v>
       </c>
       <c r="G14">
-        <v>4.5830000000000002</v>
+        <v>-9.4410000000000007</v>
       </c>
       <c r="H14">
-        <v>-9.4410000000000007</v>
-      </c>
-      <c r="I14">
         <v>2.109</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -10253,22 +9507,19 @@
         <v>1.7170000000000001</v>
       </c>
       <c r="E15">
-        <v>-5.6000000000000001E-2</v>
+        <v>-0.23899999999999999</v>
       </c>
       <c r="F15">
-        <v>-0.23899999999999999</v>
+        <v>4.3250000000000002</v>
       </c>
       <c r="G15">
-        <v>4.3250000000000002</v>
+        <v>-8.6129999999999995</v>
       </c>
       <c r="H15">
-        <v>-8.6129999999999995</v>
-      </c>
-      <c r="I15">
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -10283,22 +9534,19 @@
         <v>2.1760000000000002</v>
       </c>
       <c r="E16">
-        <v>0.34300000000000003</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="F16">
-        <v>1.4430000000000001</v>
+        <v>4.008</v>
       </c>
       <c r="G16">
-        <v>4.008</v>
+        <v>-7.9109999999999996</v>
       </c>
       <c r="H16">
-        <v>-7.9109999999999996</v>
-      </c>
-      <c r="I16">
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -10313,22 +9561,19 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="E17">
-        <v>2.7610000000000001</v>
+        <v>2.504</v>
       </c>
       <c r="F17">
-        <v>2.504</v>
+        <v>3.5830000000000002</v>
       </c>
       <c r="G17">
-        <v>3.5830000000000002</v>
+        <v>-5.6360000000000001</v>
       </c>
       <c r="H17">
-        <v>-5.6360000000000001</v>
-      </c>
-      <c r="I17">
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -10343,22 +9588,19 @@
         <v>1.3360000000000001</v>
       </c>
       <c r="E18">
-        <v>0.79300000000000004</v>
+        <v>0.157</v>
       </c>
       <c r="F18">
-        <v>0.157</v>
+        <v>3.375</v>
       </c>
       <c r="G18">
-        <v>3.375</v>
+        <v>-3.8069999999999999</v>
       </c>
       <c r="H18">
-        <v>-3.8069999999999999</v>
-      </c>
-      <c r="I18">
         <v>3.1080000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -10373,22 +9615,19 @@
         <v>0.53600000000000003</v>
       </c>
       <c r="E19">
-        <v>-0.114</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="F19">
-        <v>0.28599999999999998</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="G19">
-        <v>3.1080000000000001</v>
+        <v>-3.6970000000000001</v>
       </c>
       <c r="H19">
-        <v>-3.6970000000000001</v>
-      </c>
-      <c r="I19">
         <v>4.0209999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -10403,22 +9642,19 @@
         <v>2.3410000000000002</v>
       </c>
       <c r="E20">
-        <v>0.46800000000000003</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="F20">
-        <v>0.55300000000000005</v>
+        <v>2.8250000000000002</v>
       </c>
       <c r="G20">
-        <v>2.8250000000000002</v>
+        <v>-3.1160000000000001</v>
       </c>
       <c r="H20">
-        <v>-3.1160000000000001</v>
-      </c>
-      <c r="I20">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -10433,22 +9669,19 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="E21">
-        <v>0.97899999999999998</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="F21">
-        <v>0.82599999999999996</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="G21">
-        <v>2.4420000000000002</v>
+        <v>-2.4289999999999998</v>
       </c>
       <c r="H21">
-        <v>-2.4289999999999998</v>
-      </c>
-      <c r="I21">
         <v>3.5369999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -10463,22 +9696,19 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="E22">
-        <v>0.47699999999999998</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="F22">
-        <v>0.47799999999999998</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="G22">
-        <v>2.3580000000000001</v>
+        <v>-2.8250000000000002</v>
       </c>
       <c r="H22">
-        <v>-2.8250000000000002</v>
-      </c>
-      <c r="I22">
         <v>3.617</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -10493,22 +9723,19 @@
         <v>-4.8360000000000003</v>
       </c>
       <c r="E23">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>-7.09</v>
       </c>
       <c r="H23">
-        <v>-7.09</v>
-      </c>
-      <c r="I23">
         <v>1.659</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -10523,18 +9750,15 @@
         <v>3.4020000000000001</v>
       </c>
       <c r="E24">
-        <v>0.379</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="F24">
-        <v>0.36199999999999999</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="G24">
-        <v>2.2669999999999999</v>
+        <v>-2.0609999999999999</v>
       </c>
       <c r="H24">
-        <v>-2.0609999999999999</v>
-      </c>
-      <c r="I24">
         <v>1.885</v>
       </c>
     </row>
@@ -10545,44 +9769,41 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -10596,19 +9817,19 @@
         <v>2.2250000000000001</v>
       </c>
       <c r="E2">
-        <v>128.40899999999999</v>
+        <v>86.656000000000006</v>
       </c>
       <c r="F2">
-        <v>86.656000000000006</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>-6.8049999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -10623,19 +9844,19 @@
         <v>4.6619999999999999</v>
       </c>
       <c r="E3">
-        <v>8.3689999999999998</v>
+        <v>10.56</v>
       </c>
       <c r="F3">
-        <v>10.56</v>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-3.5760000000000001</v>
       </c>
       <c r="H3">
-        <v>-3.5760000000000001</v>
-      </c>
-      <c r="I3">
         <v>1.4590000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -10650,19 +9871,19 @@
         <v>3.109</v>
       </c>
       <c r="E4">
-        <v>7.8090000000000002</v>
+        <v>7.5229999999999997</v>
       </c>
       <c r="F4">
-        <v>7.5229999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-3.6829999999999998</v>
       </c>
       <c r="H4">
-        <v>-3.6829999999999998</v>
-      </c>
-      <c r="I4">
         <v>-12.26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -10677,19 +9898,19 @@
         <v>5.1820000000000004</v>
       </c>
       <c r="E5">
-        <v>10.632999999999999</v>
+        <v>15.189</v>
       </c>
       <c r="F5">
-        <v>15.189</v>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-2.85</v>
       </c>
       <c r="H5">
-        <v>-2.85</v>
-      </c>
-      <c r="I5">
         <v>-9.34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -10704,19 +9925,19 @@
         <v>4.5910000000000002</v>
       </c>
       <c r="E6">
-        <v>15.489000000000001</v>
+        <v>12.624000000000001</v>
       </c>
       <c r="F6">
-        <v>12.624000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-3.8849999999999998</v>
       </c>
       <c r="H6">
-        <v>-3.8849999999999998</v>
-      </c>
-      <c r="I6">
         <v>-11.595000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -10731,19 +9952,19 @@
         <v>5.5670000000000002</v>
       </c>
       <c r="E7">
-        <v>10.467000000000001</v>
+        <v>8.6630000000000003</v>
       </c>
       <c r="F7">
-        <v>8.6630000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-1.81</v>
       </c>
       <c r="H7">
-        <v>-1.81</v>
-      </c>
-      <c r="I7">
         <v>-13.885999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -10758,19 +9979,19 @@
         <v>5.2759999999999998</v>
       </c>
       <c r="E8">
-        <v>7.1669999999999998</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="F8">
-        <v>8.7799999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-2.5409999999999999</v>
       </c>
       <c r="H8">
-        <v>-2.5409999999999999</v>
-      </c>
-      <c r="I8">
         <v>-15.821</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -10785,19 +10006,19 @@
         <v>7.194</v>
       </c>
       <c r="E9">
-        <v>6.5460000000000003</v>
+        <v>4.5460000000000003</v>
       </c>
       <c r="F9">
-        <v>4.5460000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-1.482</v>
       </c>
       <c r="H9">
-        <v>-1.482</v>
-      </c>
-      <c r="I9">
         <v>-9.3079999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -10812,19 +10033,19 @@
         <v>6.0579999999999998</v>
       </c>
       <c r="E10">
-        <v>4.7590000000000003</v>
+        <v>5.7380000000000004</v>
       </c>
       <c r="F10">
-        <v>5.7380000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-1.123</v>
       </c>
       <c r="H10">
-        <v>-1.123</v>
-      </c>
-      <c r="I10">
         <v>-10.387</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -10839,19 +10060,19 @@
         <v>6.0090000000000003</v>
       </c>
       <c r="E11">
-        <v>7.6280000000000001</v>
+        <v>3.1669999999999998</v>
       </c>
       <c r="F11">
-        <v>3.1669999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>-1.8580000000000001</v>
       </c>
       <c r="H11">
-        <v>-1.8580000000000001</v>
-      </c>
-      <c r="I11">
         <v>-15.602</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -10866,19 +10087,19 @@
         <v>5.5919999999999996</v>
       </c>
       <c r="E12">
-        <v>3.4000000000000002E-2</v>
+        <v>3.92</v>
       </c>
       <c r="F12">
-        <v>3.92</v>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-3.0960000000000001</v>
       </c>
       <c r="H12">
-        <v>-3.0960000000000001</v>
-      </c>
-      <c r="I12">
         <v>-17.77</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10893,19 +10114,19 @@
         <v>6.28</v>
       </c>
       <c r="E13">
-        <v>5.984</v>
+        <v>5.774</v>
       </c>
       <c r="F13">
-        <v>5.774</v>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-1.4690000000000001</v>
       </c>
       <c r="H13">
-        <v>-1.4690000000000001</v>
-      </c>
-      <c r="I13">
         <v>-16.486000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -10920,19 +10141,19 @@
         <v>6.3120000000000003</v>
       </c>
       <c r="E14">
-        <v>7.5810000000000004</v>
+        <v>7.7009999999999996</v>
       </c>
       <c r="F14">
-        <v>7.7009999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1.429</v>
       </c>
       <c r="H14">
-        <v>-1.429</v>
-      </c>
-      <c r="I14">
         <v>-15.265000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -10947,19 +10168,19 @@
         <v>6.1829999999999998</v>
       </c>
       <c r="E15">
-        <v>4.2590000000000003</v>
+        <v>4.7329999999999997</v>
       </c>
       <c r="F15">
-        <v>4.7329999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-2.343</v>
       </c>
       <c r="H15">
-        <v>-2.343</v>
-      </c>
-      <c r="I15">
         <v>-21.317</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -10974,19 +10195,19 @@
         <v>6.4279999999999999</v>
       </c>
       <c r="E16">
-        <v>6.3710000000000004</v>
+        <v>6.649</v>
       </c>
       <c r="F16">
-        <v>6.649</v>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-4.0309999999999997</v>
       </c>
       <c r="H16">
-        <v>-4.0309999999999997</v>
-      </c>
-      <c r="I16">
         <v>-26.506</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -11001,19 +10222,19 @@
         <v>6.016</v>
       </c>
       <c r="E17">
-        <v>4.1289999999999996</v>
+        <v>2.399</v>
       </c>
       <c r="F17">
-        <v>2.399</v>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-3.1320000000000001</v>
       </c>
       <c r="H17">
-        <v>-3.1320000000000001</v>
-      </c>
-      <c r="I17">
         <v>-23.273</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -11028,19 +10249,19 @@
         <v>5.6559999999999997</v>
       </c>
       <c r="E18">
-        <v>1.278</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F18">
-        <v>0.89700000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-5.57</v>
       </c>
       <c r="H18">
-        <v>-5.57</v>
-      </c>
-      <c r="I18">
         <v>-22.420999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -11055,19 +10276,19 @@
         <v>5.3869999999999996</v>
       </c>
       <c r="E19">
-        <v>1.7629999999999999</v>
+        <v>2.4870000000000001</v>
       </c>
       <c r="F19">
-        <v>2.4870000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>-5.0599999999999996</v>
       </c>
       <c r="H19">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="I19">
         <v>-11.009</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -11082,19 +10303,19 @@
         <v>5.1849999999999996</v>
       </c>
       <c r="E20">
-        <v>0.66</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="F20">
-        <v>0.14799999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>-5.4870000000000001</v>
       </c>
       <c r="H20">
-        <v>-5.4870000000000001</v>
-      </c>
-      <c r="I20">
         <v>-10.638</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -11109,19 +10330,19 @@
         <v>4.6749999999999998</v>
       </c>
       <c r="E21">
-        <v>2.0390000000000001</v>
+        <v>1.482</v>
       </c>
       <c r="F21">
-        <v>1.482</v>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>-4.6630000000000003</v>
       </c>
       <c r="H21">
-        <v>-4.6630000000000003</v>
-      </c>
-      <c r="I21">
         <v>-11.974</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -11136,19 +10357,19 @@
         <v>3.234</v>
       </c>
       <c r="E22">
-        <v>3.3239999999999998</v>
+        <v>6.2869999999999999</v>
       </c>
       <c r="F22">
-        <v>6.2869999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>-5.1470000000000002</v>
       </c>
       <c r="H22">
-        <v>-5.1470000000000002</v>
-      </c>
-      <c r="I22">
         <v>-7.234</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -11163,19 +10384,19 @@
         <v>-0.70699999999999996</v>
       </c>
       <c r="E23">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F23">
-        <v>6.3</v>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>-6.2329999999999997</v>
       </c>
       <c r="H23">
-        <v>-6.2329999999999997</v>
-      </c>
-      <c r="I23">
         <v>-10.89</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -11190,15 +10411,15 @@
         <v>4.1020000000000003</v>
       </c>
       <c r="E24">
-        <v>4.9000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="F24">
-        <v>3.5</v>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>-5.5220000000000002</v>
       </c>
       <c r="H24">
-        <v>-5.5220000000000002</v>
-      </c>
-      <c r="I24">
         <v>-9.1920000000000002</v>
       </c>
     </row>
@@ -11209,44 +10430,41 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="C25:J26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -11260,22 +10478,19 @@
         <v>3.4630000000000001</v>
       </c>
       <c r="E2">
-        <v>2.7309999999999999</v>
+        <v>2.4660000000000002</v>
       </c>
       <c r="F2">
-        <v>2.4660000000000002</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="G2">
-        <v>3.4249999999999998</v>
+        <v>-3.0030000000000001</v>
       </c>
       <c r="H2">
-        <v>-3.0030000000000001</v>
-      </c>
-      <c r="I2">
         <v>14.621</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -11290,22 +10505,19 @@
         <v>5.9630000000000001</v>
       </c>
       <c r="E3">
-        <v>1.5509999999999999</v>
+        <v>1.204</v>
       </c>
       <c r="F3">
-        <v>1.204</v>
+        <v>3.1</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>-6.0529999999999999</v>
       </c>
       <c r="H3">
-        <v>-6.0529999999999999</v>
-      </c>
-      <c r="I3">
         <v>8.3089999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>2001</v>
@@ -11320,22 +10532,19 @@
         <v>-2.101</v>
       </c>
       <c r="E4">
-        <v>1.427</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="F4">
-        <v>1.1890000000000001</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="G4">
-        <v>3.6749999999999998</v>
+        <v>-4.3609999999999998</v>
       </c>
       <c r="H4">
-        <v>-4.3609999999999998</v>
-      </c>
-      <c r="I4">
         <v>7.2110000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -11350,22 +10559,19 @@
         <v>2.8180000000000001</v>
       </c>
       <c r="E5">
-        <v>1.7929999999999999</v>
+        <v>1.603</v>
       </c>
       <c r="F5">
-        <v>1.603</v>
+        <v>3.4750000000000001</v>
       </c>
       <c r="G5">
-        <v>3.4750000000000001</v>
+        <v>-3.96</v>
       </c>
       <c r="H5">
-        <v>-3.96</v>
-      </c>
-      <c r="I5">
         <v>6.5460000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -11380,22 +10586,19 @@
         <v>3.3119999999999998</v>
       </c>
       <c r="E6">
-        <v>1.0740000000000001</v>
+        <v>1.157</v>
       </c>
       <c r="F6">
-        <v>1.157</v>
+        <v>3.6</v>
       </c>
       <c r="G6">
-        <v>3.6</v>
+        <v>-4.5970000000000004</v>
       </c>
       <c r="H6">
-        <v>-4.5970000000000004</v>
-      </c>
-      <c r="I6">
         <v>11.148999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -11410,22 +10613,19 @@
         <v>4.3710000000000004</v>
       </c>
       <c r="E7">
-        <v>1.42</v>
+        <v>2.1829999999999998</v>
       </c>
       <c r="F7">
-        <v>2.1829999999999998</v>
+        <v>3.55</v>
       </c>
       <c r="G7">
-        <v>3.55</v>
+        <v>-3.3530000000000002</v>
       </c>
       <c r="H7">
-        <v>-3.3530000000000002</v>
-      </c>
-      <c r="I7">
         <v>11.099</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -11440,22 +10640,19 @@
         <v>2.7090000000000001</v>
       </c>
       <c r="E8">
-        <v>3.0390000000000001</v>
+        <v>3.2109999999999999</v>
       </c>
       <c r="F8">
-        <v>3.2109999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="G8">
-        <v>3.55</v>
+        <v>-2.8330000000000002</v>
       </c>
       <c r="H8">
-        <v>-2.8330000000000002</v>
-      </c>
-      <c r="I8">
         <v>13.763999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -11470,22 +10667,19 @@
         <v>4.1890000000000001</v>
       </c>
       <c r="E9">
-        <v>3.621</v>
+        <v>3.1459999999999999</v>
       </c>
       <c r="F9">
-        <v>3.1459999999999999</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="G9">
-        <v>3.3250000000000002</v>
+        <v>-2.6019999999999999</v>
       </c>
       <c r="H9">
-        <v>-2.6019999999999999</v>
-      </c>
-      <c r="I9">
         <v>15.362</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -11500,22 +10694,19 @@
         <v>5.2460000000000004</v>
       </c>
       <c r="E10">
-        <v>2.0270000000000001</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="F10">
-        <v>2.2879999999999998</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="G10">
-        <v>3.2250000000000001</v>
+        <v>-2.5710000000000002</v>
       </c>
       <c r="H10">
-        <v>-2.5710000000000002</v>
-      </c>
-      <c r="I10">
         <v>14.663</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -11530,22 +10721,19 @@
         <v>2.9329999999999998</v>
       </c>
       <c r="E11">
-        <v>5.4290000000000003</v>
+        <v>4.4729999999999999</v>
       </c>
       <c r="F11">
-        <v>4.4729999999999999</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="G11">
-        <v>3.3250000000000002</v>
+        <v>-3.4049999999999998</v>
       </c>
       <c r="H11">
-        <v>-3.4049999999999998</v>
-      </c>
-      <c r="I11">
         <v>16.295000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -11560,22 +10748,19 @@
         <v>-3.2040000000000002</v>
       </c>
       <c r="E12">
-        <v>0.59699999999999998</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="F12">
-        <v>1.0189999999999999</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="G12">
-        <v>3.6749999999999998</v>
+        <v>-5.88</v>
       </c>
       <c r="H12">
-        <v>-5.88</v>
-      </c>
-      <c r="I12">
         <v>14.829000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -11590,22 +10775,19 @@
         <v>5.6230000000000002</v>
       </c>
       <c r="E13">
-        <v>1.72</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="F13">
-        <v>2.1190000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>-4.319</v>
       </c>
       <c r="H13">
-        <v>-4.319</v>
-      </c>
-      <c r="I13">
         <v>9.9410000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -11620,22 +10802,19 @@
         <v>3.5779999999999998</v>
       </c>
       <c r="E14">
-        <v>3.1739999999999999</v>
+        <v>2.964</v>
       </c>
       <c r="F14">
-        <v>2.964</v>
+        <v>3.05</v>
       </c>
       <c r="G14">
-        <v>3.05</v>
+        <v>-3.5680000000000001</v>
       </c>
       <c r="H14">
-        <v>-3.5680000000000001</v>
-      </c>
-      <c r="I14">
         <v>10.741</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -11650,22 +10829,19 @@
         <v>3.8719999999999999</v>
       </c>
       <c r="E15">
-        <v>1.6639999999999999</v>
+        <v>1.248</v>
       </c>
       <c r="F15">
-        <v>1.248</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="G15">
-        <v>3.0249999999999999</v>
+        <v>-3.1030000000000002</v>
       </c>
       <c r="H15">
-        <v>-3.1030000000000002</v>
-      </c>
-      <c r="I15">
         <v>5.0940000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -11680,22 +10856,19 @@
         <v>2.2549999999999999</v>
       </c>
       <c r="E16">
-        <v>2.105</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="F16">
-        <v>3.2229999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="G16">
-        <v>3.1</v>
+        <v>-3.4780000000000002</v>
       </c>
       <c r="H16">
-        <v>-3.4780000000000002</v>
-      </c>
-      <c r="I16">
         <v>3.4350000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -11710,22 +10883,19 @@
         <v>4.2990000000000004</v>
       </c>
       <c r="E17">
-        <v>3.1429999999999998</v>
+        <v>2.6629999999999998</v>
       </c>
       <c r="F17">
-        <v>2.6629999999999998</v>
+        <v>2.875</v>
       </c>
       <c r="G17">
-        <v>2.875</v>
+        <v>-2.6280000000000001</v>
       </c>
       <c r="H17">
-        <v>-2.6280000000000001</v>
-      </c>
-      <c r="I17">
         <v>4.327</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -11740,22 +10910,19 @@
         <v>3.399</v>
       </c>
       <c r="E18">
-        <v>2.1040000000000001</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F18">
-        <v>2.6829999999999998</v>
+        <v>3.15</v>
       </c>
       <c r="G18">
-        <v>3.15</v>
+        <v>-2.5459999999999998</v>
       </c>
       <c r="H18">
-        <v>-2.5459999999999998</v>
-      </c>
-      <c r="I18">
         <v>2.9870000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -11770,22 +10937,19 @@
         <v>2.972</v>
       </c>
       <c r="E19">
-        <v>2.0760000000000001</v>
+        <v>1.742</v>
       </c>
       <c r="F19">
-        <v>1.742</v>
+        <v>3.45</v>
       </c>
       <c r="G19">
-        <v>3.45</v>
+        <v>-2.6030000000000002</v>
       </c>
       <c r="H19">
-        <v>-2.6030000000000002</v>
-      </c>
-      <c r="I19">
         <v>2.3929999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -11800,22 +10964,19 @@
         <v>4.4569999999999999</v>
       </c>
       <c r="E20">
-        <v>3.7989999999999999</v>
+        <v>3.51</v>
       </c>
       <c r="F20">
-        <v>3.51</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="G20">
-        <v>3.4249999999999998</v>
+        <v>-2.4129999999999998</v>
       </c>
       <c r="H20">
-        <v>-2.4129999999999998</v>
-      </c>
-      <c r="I20">
         <v>2.7919999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -11830,22 +10991,19 @@
         <v>3.5779999999999998</v>
       </c>
       <c r="E21">
-        <v>0.96899999999999997</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F21">
-        <v>0.16500000000000001</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="G21">
-        <v>3.3250000000000002</v>
+        <v>-3.3079999999999998</v>
       </c>
       <c r="H21">
-        <v>-3.3079999999999998</v>
-      </c>
-      <c r="I21">
         <v>2.1139999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -11860,22 +11018,19 @@
         <v>3.6930000000000001</v>
       </c>
       <c r="E22">
-        <v>0.66300000000000003</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F22">
-        <v>0.99099999999999999</v>
+        <v>3.2749999999999999</v>
       </c>
       <c r="G22">
-        <v>3.2749999999999999</v>
+        <v>-3.1749999999999998</v>
       </c>
       <c r="H22">
-        <v>-3.1749999999999998</v>
-      </c>
-      <c r="I22">
         <v>3.2919999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -11893,19 +11048,16 @@
         <v>0.106</v>
       </c>
       <c r="F23">
-        <v>0.106</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G23">
-        <v>4.9000000000000004</v>
+        <v>-4.2</v>
       </c>
       <c r="H23">
-        <v>-4.2</v>
-      </c>
-      <c r="I23">
         <v>-9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -11923,15 +11075,12 @@
         <v>2.7919999999999998</v>
       </c>
       <c r="F24">
-        <v>2.7919999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="G24">
-        <v>3.4</v>
+        <v>-3.6</v>
       </c>
       <c r="H24">
-        <v>-3.6</v>
-      </c>
-      <c r="I24">
         <v>1.728</v>
       </c>
     </row>
